--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18240" windowHeight="10545" tabRatio="767" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18240" windowHeight="10545" tabRatio="767" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ErodeImage" sheetId="10" state="hidden" r:id="rId1"/>
     <sheet name="Basic" sheetId="11" state="hidden" r:id="rId2"/>
-    <sheet name="ErodeBufferUchar" sheetId="7" r:id="rId3"/>
-    <sheet name="ErodeBufferUint" sheetId="8" r:id="rId4"/>
+    <sheet name="ErodeBufferUchar" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="ErodeBufferUint" sheetId="8" state="hidden" r:id="rId4"/>
     <sheet name="Wykres1.3" sheetId="44" r:id="rId5"/>
     <sheet name="Gaussian" sheetId="2" state="hidden" r:id="rId6"/>
     <sheet name="WykresGauss" sheetId="34" r:id="rId7"/>
@@ -15257,7 +15257,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15401,7 +15401,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Testy.xlsx
+++ b/Testy.xlsx
@@ -1020,33 +1020,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1060,7 +1033,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2317,11 +2317,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="111802624"/>
-        <c:axId val="112157056"/>
+        <c:axId val="91433984"/>
+        <c:axId val="91452928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111802624"/>
+        <c:axId val="91433984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,12 +2347,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112157056"/>
+        <c:crossAx val="91452928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112157056"/>
+        <c:axId val="91452928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2399,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="111802624"/>
+        <c:crossAx val="91433984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2854,11 +2854,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="118862592"/>
-        <c:axId val="118864512"/>
+        <c:axId val="110270720"/>
+        <c:axId val="110272896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118862592"/>
+        <c:axId val="110270720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,12 +2889,12 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118864512"/>
+        <c:crossAx val="110272896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118864512"/>
+        <c:axId val="110272896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +2946,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118862592"/>
+        <c:crossAx val="110270720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3926,11 +3926,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="120357248"/>
-        <c:axId val="120359168"/>
+        <c:axId val="116946816"/>
+        <c:axId val="116961280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120357248"/>
+        <c:axId val="116946816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,13 +3956,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120359168"/>
+        <c:crossAx val="116961280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120359168"/>
+        <c:axId val="116961280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4009,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="120357248"/>
+        <c:crossAx val="116946816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4032,8 +4032,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.9927671650947477E-2"/>
-          <c:y val="0.81287062354803696"/>
+          <c:x val="1.9927671650947484E-2"/>
+          <c:y val="0.81287062354803719"/>
           <c:w val="0.95468866933193797"/>
           <c:h val="0.17460512736169076"/>
         </c:manualLayout>
@@ -4163,11 +4163,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="119147136"/>
-        <c:axId val="119169408"/>
+        <c:axId val="116887936"/>
+        <c:axId val="116889472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119147136"/>
+        <c:axId val="116887936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,14 +4184,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119169408"/>
+        <c:crossAx val="116889472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119169408"/>
+        <c:axId val="116889472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,7 +4218,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119147136"/>
+        <c:crossAx val="116887936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4335,11 +4335,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="119267712"/>
-        <c:axId val="119269248"/>
+        <c:axId val="117012352"/>
+        <c:axId val="117013888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119267712"/>
+        <c:axId val="117012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,14 +4356,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119269248"/>
+        <c:crossAx val="117013888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119269248"/>
+        <c:axId val="117013888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4390,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="119267712"/>
+        <c:crossAx val="117012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4507,11 +4507,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="120403840"/>
-        <c:axId val="120405376"/>
+        <c:axId val="117251456"/>
+        <c:axId val="117269632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120403840"/>
+        <c:axId val="117251456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,14 +4528,14 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120405376"/>
+        <c:crossAx val="117269632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120405376"/>
+        <c:axId val="117269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,7 +4562,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="120403840"/>
+        <c:crossAx val="117251456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4913,11 +4913,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112443392"/>
-        <c:axId val="112445312"/>
+        <c:axId val="117106176"/>
+        <c:axId val="117108096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112443392"/>
+        <c:axId val="117106176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4955,12 +4955,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112445312"/>
+        <c:crossAx val="117108096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112445312"/>
+        <c:axId val="117108096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5007,7 +5007,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="112443392"/>
+        <c:crossAx val="117106176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5382,11 +5382,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="108000384"/>
-        <c:axId val="108002304"/>
+        <c:axId val="103962880"/>
+        <c:axId val="103973248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108000384"/>
+        <c:axId val="103962880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,12 +5412,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108002304"/>
+        <c:crossAx val="103973248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108002304"/>
+        <c:axId val="103973248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5469,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108000384"/>
+        <c:crossAx val="103962880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6427,11 +6427,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112308992"/>
-        <c:axId val="112310912"/>
+        <c:axId val="104444288"/>
+        <c:axId val="104446208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112308992"/>
+        <c:axId val="104444288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,12 +6457,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112310912"/>
+        <c:crossAx val="104446208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112310912"/>
+        <c:axId val="104446208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6509,7 +6509,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="112308992"/>
+        <c:crossAx val="104444288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8355,11 +8355,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112867584"/>
-        <c:axId val="112890240"/>
+        <c:axId val="104946688"/>
+        <c:axId val="104965248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112867584"/>
+        <c:axId val="104946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8385,12 +8385,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112890240"/>
+        <c:crossAx val="104965248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112890240"/>
+        <c:axId val="104965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8437,7 +8437,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="112867584"/>
+        <c:crossAx val="104946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9087,11 +9087,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="112541056"/>
-        <c:axId val="112555520"/>
+        <c:axId val="105046016"/>
+        <c:axId val="105047936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112541056"/>
+        <c:axId val="105046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9117,13 +9117,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112555520"/>
+        <c:crossAx val="105047936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112555520"/>
+        <c:axId val="105047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9170,7 +9170,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="112541056"/>
+        <c:crossAx val="105046016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10728,11 +10728,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113862528"/>
-        <c:axId val="113881088"/>
+        <c:axId val="106456960"/>
+        <c:axId val="106463232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113862528"/>
+        <c:axId val="106456960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10758,12 +10758,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113881088"/>
+        <c:crossAx val="106463232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113881088"/>
+        <c:axId val="106463232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10810,7 +10810,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113862528"/>
+        <c:crossAx val="106456960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11460,11 +11460,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113257472"/>
-        <c:axId val="113271936"/>
+        <c:axId val="108633088"/>
+        <c:axId val="108643456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113257472"/>
+        <c:axId val="108633088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11490,13 +11490,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113271936"/>
+        <c:crossAx val="108643456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113271936"/>
+        <c:axId val="108643456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11543,7 +11543,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="113257472"/>
+        <c:crossAx val="108633088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12951,11 +12951,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="118515968"/>
-        <c:axId val="118522240"/>
+        <c:axId val="108760064"/>
+        <c:axId val="108774528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118515968"/>
+        <c:axId val="108760064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12986,12 +12986,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118522240"/>
+        <c:crossAx val="108774528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118522240"/>
+        <c:axId val="108774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13038,7 +13038,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="118515968"/>
+        <c:crossAx val="108760064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15211,23 +15211,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="113926912"/>
-        <c:axId val="113928448"/>
+        <c:axId val="104741120"/>
+        <c:axId val="104771584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113926912"/>
+        <c:axId val="104741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113928448"/>
+        <c:crossAx val="104771584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113928448"/>
+        <c:axId val="104771584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15235,7 +15235,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113926912"/>
+        <c:crossAx val="104741120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15247,7 +15247,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15257,7 +15257,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15281,7 +15281,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15293,7 +15293,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15305,7 +15305,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15317,7 +15317,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15329,7 +15329,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15341,7 +15341,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15353,7 +15353,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15365,7 +15365,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15377,7 +15377,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15389,7 +15389,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15401,7 +15401,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -15413,7 +15413,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="104" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -20066,17 +20066,17 @@
     <row r="4" spans="1:27">
       <c r="C4" s="38"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="J4" s="68" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="J4" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="38"/>
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
@@ -20125,19 +20125,19 @@
     <row r="6" spans="1:27">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="71">
+      <c r="C6" s="62">
         <v>0.16862949999999999</v>
       </c>
       <c r="D6" s="31">
         <v>5</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="63">
         <v>3</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="66">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="G6" s="75">
+      <c r="G6" s="66">
         <v>6.0805833333333344E-2</v>
       </c>
       <c r="H6" s="10">
@@ -20177,13 +20177,13 @@
       <c r="D7" s="32">
         <v>17</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="64">
         <v>5</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="67">
         <v>0.20401000000000002</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="67">
         <v>0.14615749999999997</v>
       </c>
       <c r="H7" s="11">
@@ -20195,15 +20195,15 @@
         <v>1</v>
       </c>
       <c r="K7" s="28">
-        <f>$C7/F7</f>
+        <f t="shared" ref="K7:K40" si="0">$C7/F7</f>
         <v>1.8457440811724914</v>
       </c>
       <c r="L7" s="28">
-        <f>$C7/G7</f>
+        <f t="shared" ref="L7:L40" si="1">$C7/G7</f>
         <v>2.5763320390674451</v>
       </c>
       <c r="M7" s="22">
-        <f t="shared" ref="M7:M49" si="0">$C7/H7</f>
+        <f t="shared" ref="M7:M49" si="2">$C7/H7</f>
         <v>3.9858889427953961</v>
       </c>
       <c r="N7" s="1"/>
@@ -20224,13 +20224,13 @@
       <c r="D8" s="32">
         <v>33</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="64">
         <v>7</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="67">
         <v>0.37626000000000004</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="67">
         <v>0.26875000000000004</v>
       </c>
       <c r="H8" s="11">
@@ -20242,15 +20242,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="28">
-        <f>$C8/F8</f>
+        <f t="shared" si="0"/>
         <v>1.3791567001541485</v>
       </c>
       <c r="L8" s="28">
-        <f>$C8/G8</f>
+        <f t="shared" si="1"/>
         <v>1.9308706976744181</v>
       </c>
       <c r="M8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.956901906037209</v>
       </c>
       <c r="N8" s="1"/>
@@ -20271,13 +20271,13 @@
       <c r="D9" s="32">
         <v>57</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="64">
         <v>9</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="67">
         <v>0.63575749999999986</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="67">
         <v>0.4530183333333333</v>
       </c>
       <c r="H9" s="11">
@@ -20289,15 +20289,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="28">
-        <f>$C9/F9</f>
+        <f t="shared" si="0"/>
         <v>1.3242950338769108</v>
       </c>
       <c r="L9" s="28">
-        <f>$C9/G9</f>
+        <f t="shared" si="1"/>
         <v>1.8584910102975967</v>
       </c>
       <c r="M9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8393238344153109</v>
       </c>
       <c r="N9" s="1"/>
@@ -20319,13 +20319,13 @@
       <c r="D10" s="32">
         <v>89</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="64">
         <v>11</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="67">
         <v>0.98801916666666678</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="67">
         <v>0.69858500000000001</v>
       </c>
       <c r="H10" s="11">
@@ -20337,15 +20337,15 @@
         <v>1</v>
       </c>
       <c r="K10" s="28">
-        <f>$C10/F10</f>
+        <f t="shared" si="0"/>
         <v>1.2953232182574057</v>
       </c>
       <c r="L10" s="28">
-        <f>$C10/G10</f>
+        <f t="shared" si="1"/>
         <v>1.8319949135275835</v>
       </c>
       <c r="M10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7850436952449344</v>
       </c>
       <c r="N10" s="1"/>
@@ -20367,13 +20367,13 @@
       <c r="D11" s="32">
         <v>121</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="64">
         <v>13</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="67">
         <v>1.3357508333333332</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="67">
         <v>0.94437083333333327</v>
       </c>
       <c r="H11" s="11">
@@ -20385,15 +20385,15 @@
         <v>1</v>
       </c>
       <c r="K11" s="28">
-        <f>$C11/F11</f>
+        <f t="shared" si="0"/>
         <v>1.27374678785527</v>
       </c>
       <c r="L11" s="28">
-        <f>$C11/G11</f>
+        <f t="shared" si="1"/>
         <v>1.801631597756884</v>
       </c>
       <c r="M11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7325386086563159</v>
       </c>
       <c r="N11" s="1"/>
@@ -20415,13 +20415,13 @@
       <c r="D12" s="32">
         <v>169</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="64">
         <v>15</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="67">
         <v>1.8563800000000001</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="67">
         <v>1.3090199999999999</v>
       </c>
       <c r="H12" s="11">
@@ -20433,15 +20433,15 @@
         <v>1</v>
       </c>
       <c r="K12" s="28">
-        <f>$C12/F12</f>
+        <f t="shared" si="0"/>
         <v>1.2805783298678071</v>
       </c>
       <c r="L12" s="28">
-        <f>$C12/G12</f>
+        <f t="shared" si="1"/>
         <v>1.816045591358421</v>
       </c>
       <c r="M12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7422098495801159</v>
       </c>
       <c r="N12" s="1"/>
@@ -20463,13 +20463,13 @@
       <c r="D13" s="32">
         <v>213</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="64">
         <v>17</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="67">
         <v>2.3308679999999997</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="67">
         <v>1.6465340000000002</v>
       </c>
       <c r="H13" s="11">
@@ -20481,15 +20481,15 @@
         <v>1</v>
       </c>
       <c r="K13" s="28">
-        <f>$C13/F13</f>
+        <f t="shared" si="0"/>
         <v>1.2606183619149607</v>
       </c>
       <c r="L13" s="28">
-        <f>$C13/G13</f>
+        <f t="shared" si="1"/>
         <v>1.7845577437210529</v>
       </c>
       <c r="M13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6957923186017978</v>
       </c>
       <c r="N13" s="1"/>
@@ -20511,13 +20511,13 @@
       <c r="D14" s="32">
         <v>269</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="64">
         <v>19</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="67">
         <v>2.9654440000000002</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="67">
         <v>2.0780219999999998</v>
       </c>
       <c r="H14" s="11">
@@ -20529,15 +20529,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="28">
-        <f>$C14/F14</f>
+        <f t="shared" si="0"/>
         <v>1.2182852438510612</v>
       </c>
       <c r="L14" s="28">
-        <f>$C14/G14</f>
+        <f t="shared" si="1"/>
         <v>1.7385555430436572</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6289108713962674</v>
       </c>
       <c r="N14" s="1"/>
@@ -20559,13 +20559,13 @@
       <c r="D15" s="32">
         <v>333</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="64">
         <v>21</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="67">
         <v>3.6748900000000004</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="67">
         <v>2.569178</v>
       </c>
       <c r="H15" s="11">
@@ -20577,15 +20577,15 @@
         <v>1</v>
       </c>
       <c r="K15" s="28">
-        <f>$C15/F15</f>
+        <f t="shared" si="0"/>
         <v>1.2195675698229518</v>
       </c>
       <c r="L15" s="28">
-        <f>$C15/G15</f>
+        <f t="shared" si="1"/>
         <v>1.7444399207321049</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.635578257062055</v>
       </c>
       <c r="N15" s="1"/>
@@ -20607,13 +20607,13 @@
       <c r="D16" s="32">
         <v>401</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="64">
         <v>23</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="67">
         <v>4.4199119999999992</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="67">
         <v>3.0901779999999999</v>
       </c>
       <c r="H16" s="11">
@@ -20625,15 +20625,15 @@
         <v>1</v>
       </c>
       <c r="K16" s="28">
-        <f>$C16/F16</f>
+        <f t="shared" si="0"/>
         <v>1.2167847836487848</v>
       </c>
       <c r="L16" s="28">
-        <f>$C16/G16</f>
+        <f t="shared" si="1"/>
         <v>1.74037924891921</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6239664650013008</v>
       </c>
       <c r="N16" s="1"/>
@@ -20655,13 +20655,13 @@
       <c r="D17" s="32">
         <v>477</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="64">
         <v>25</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="67">
         <v>5.2711999999999994</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="67">
         <v>3.6766219999999996</v>
       </c>
       <c r="H17" s="11">
@@ -20673,15 +20673,15 @@
         <v>1</v>
       </c>
       <c r="K17" s="28">
-        <f>$C17/F17</f>
+        <f t="shared" si="0"/>
         <v>1.2205373855415591</v>
       </c>
       <c r="L17" s="28">
-        <f>$C17/G17</f>
+        <f t="shared" si="1"/>
         <v>1.7498934257224885</v>
       </c>
       <c r="M17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6448907159986299</v>
       </c>
       <c r="N17" s="1"/>
@@ -20703,13 +20703,13 @@
       <c r="D18" s="32">
         <v>553</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="64">
         <v>27</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="67">
         <v>6.1292460000000002</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="67">
         <v>4.2567319999999995</v>
       </c>
       <c r="H18" s="11">
@@ -20721,15 +20721,15 @@
         <v>1</v>
       </c>
       <c r="K18" s="28">
-        <f>$C18/F18</f>
+        <f t="shared" si="0"/>
         <v>1.2028177419103969</v>
       </c>
       <c r="L18" s="28">
-        <f>$C18/G18</f>
+        <f t="shared" si="1"/>
         <v>1.7319309351242536</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6104687751919102</v>
       </c>
       <c r="N18" s="1"/>
@@ -20751,13 +20751,13 @@
       <c r="D19" s="32">
         <v>641</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="64">
         <v>29</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="67">
         <v>7.1308166666666679</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="67">
         <v>4.9319119999999996</v>
       </c>
       <c r="H19" s="11">
@@ -20769,15 +20769,15 @@
         <v>1</v>
       </c>
       <c r="K19" s="28">
-        <f>$C19/F19</f>
+        <f t="shared" si="0"/>
         <v>1.1922562633078488</v>
       </c>
       <c r="L19" s="28">
-        <f>$C19/G19</f>
+        <f t="shared" si="1"/>
         <v>1.7238265470538268</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5887918885080934</v>
       </c>
       <c r="N19" s="1"/>
@@ -20799,13 +20799,13 @@
       <c r="D20" s="32">
         <v>729</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="64">
         <v>31</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="67">
         <v>8.1422859999999986</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="67">
         <v>5.6123779999999996</v>
       </c>
       <c r="H20" s="11">
@@ -20817,15 +20817,15 @@
         <v>1</v>
       </c>
       <c r="K20" s="28">
-        <f>$C20/F20</f>
+        <f t="shared" si="0"/>
         <v>1.1857354924648926</v>
       </c>
       <c r="L20" s="28">
-        <f>$C20/G20</f>
+        <f t="shared" si="1"/>
         <v>1.7202329386937232</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5311368371792446</v>
       </c>
       <c r="N20" s="1"/>
@@ -20847,13 +20847,13 @@
       <c r="D21" s="32">
         <v>833</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="64">
         <v>33</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="67">
         <v>9.3122316666666656</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="67">
         <v>6.4148660000000008</v>
       </c>
       <c r="H21" s="11">
@@ -20865,15 +20865,15 @@
         <v>1</v>
       </c>
       <c r="K21" s="28">
-        <f>$C21/F21</f>
+        <f t="shared" si="0"/>
         <v>1.1795641896795597</v>
       </c>
       <c r="L21" s="28">
-        <f>$C21/G21</f>
+        <f t="shared" si="1"/>
         <v>1.7123311695053332</v>
       </c>
       <c r="M21" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.38078638333781</v>
       </c>
       <c r="N21" s="1"/>
@@ -20895,13 +20895,13 @@
       <c r="D22" s="32">
         <v>941</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="64">
         <v>35</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="67">
         <v>10.567675833333334</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="67">
         <v>7.2345360000000003</v>
       </c>
       <c r="H22" s="11">
@@ -20913,15 +20913,15 @@
         <v>1</v>
       </c>
       <c r="K22" s="28">
-        <f>$C22/F22</f>
+        <f t="shared" si="0"/>
         <v>1.1845887589126936</v>
       </c>
       <c r="L22" s="28">
-        <f>$C22/G22</f>
+        <f t="shared" si="1"/>
         <v>1.730359763224621</v>
       </c>
       <c r="M22" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3982700293277599</v>
       </c>
       <c r="N22" s="1"/>
@@ -20943,13 +20943,13 @@
       <c r="D23" s="32">
         <v>1049</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="64">
         <v>37</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="67">
         <v>11.625408333333333</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="67">
         <v>8.066533999999999</v>
       </c>
       <c r="H23" s="11">
@@ -20961,15 +20961,15 @@
         <v>1</v>
       </c>
       <c r="K23" s="28">
-        <f>$C23/F23</f>
+        <f t="shared" si="0"/>
         <v>1.2034516350321747</v>
       </c>
       <c r="L23" s="28">
-        <f>$C23/G23</f>
+        <f t="shared" si="1"/>
         <v>1.7344024914128757</v>
       </c>
       <c r="M23" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2781484739669775</v>
       </c>
       <c r="N23" s="1"/>
@@ -20991,13 +20991,13 @@
       <c r="D24" s="32">
         <v>1169</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="64">
         <v>39</v>
       </c>
-      <c r="F24" s="76">
+      <c r="F24" s="67">
         <v>13.018620000000004</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="67">
         <v>8.9984450000000002</v>
       </c>
       <c r="H24" s="11">
@@ -21009,15 +21009,15 @@
         <v>1</v>
       </c>
       <c r="K24" s="28">
-        <f>$C24/F24</f>
+        <f t="shared" si="0"/>
         <v>1.1790810649157384</v>
       </c>
       <c r="L24" s="28">
-        <f>$C24/G24</f>
+        <f t="shared" si="1"/>
         <v>1.7058512146635707</v>
       </c>
       <c r="M24" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1796083901388039</v>
       </c>
       <c r="N24" s="1"/>
@@ -21039,13 +21039,13 @@
       <c r="D25" s="32">
         <v>1293</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="64">
         <v>41</v>
       </c>
-      <c r="F25" s="76">
+      <c r="F25" s="67">
         <v>14.463759166666664</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="67">
         <v>9.9326439999999998</v>
       </c>
       <c r="H25" s="11">
@@ -21057,15 +21057,15 @@
         <v>1</v>
       </c>
       <c r="K25" s="28">
-        <f>$C25/F25</f>
+        <f t="shared" si="0"/>
         <v>1.1810501546076861</v>
       </c>
       <c r="L25" s="28">
-        <f>$C25/G25</f>
+        <f t="shared" si="1"/>
         <v>1.7198265638031527</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1095588163407912</v>
       </c>
       <c r="N25" s="1"/>
@@ -21087,13 +21087,13 @@
       <c r="D26" s="32">
         <v>1421</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="64">
         <v>43</v>
       </c>
-      <c r="F26" s="76">
+      <c r="F26" s="67">
         <v>15.972823999999999</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="67">
         <v>10.934435833333332</v>
       </c>
       <c r="H26" s="11">
@@ -21105,15 +21105,15 @@
         <v>1</v>
       </c>
       <c r="K26" s="28">
-        <f>$C26/F26</f>
+        <f t="shared" si="0"/>
         <v>1.1788381941728028</v>
       </c>
       <c r="L26" s="28">
-        <f>$C26/G26</f>
+        <f t="shared" si="1"/>
         <v>1.7220252866269663</v>
       </c>
       <c r="M26" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0107444379659949</v>
       </c>
       <c r="N26" s="1"/>
@@ -21135,13 +21135,13 @@
       <c r="D27" s="32">
         <v>1561</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="64">
         <v>45</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="67">
         <v>17.548861666666667</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="67">
         <v>11.990889999999998</v>
       </c>
       <c r="H27" s="11">
@@ -21153,15 +21153,15 @@
         <v>1</v>
       </c>
       <c r="K27" s="28">
-        <f>$C27/F27</f>
+        <f t="shared" si="0"/>
         <v>1.1835767695093613</v>
       </c>
       <c r="L27" s="28">
-        <f>$C27/G27</f>
+        <f t="shared" si="1"/>
         <v>1.7321837661758219</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9079633948591221</v>
       </c>
       <c r="N27" s="1"/>
@@ -21183,13 +21183,13 @@
       <c r="D28" s="32">
         <v>1701</v>
       </c>
-      <c r="E28" s="73">
+      <c r="E28" s="64">
         <v>47</v>
       </c>
-      <c r="F28" s="76">
+      <c r="F28" s="67">
         <v>19.027102500000002</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="67">
         <v>13.05189</v>
       </c>
       <c r="H28" s="11">
@@ -21201,15 +21201,15 @@
         <v>1</v>
       </c>
       <c r="K28" s="28">
-        <f>$C28/F28</f>
+        <f t="shared" si="0"/>
         <v>1.1872485576823901</v>
       </c>
       <c r="L28" s="28">
-        <f>$C28/G28</f>
+        <f t="shared" si="1"/>
         <v>1.730776155790464</v>
       </c>
       <c r="M28" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8412439659054556</v>
       </c>
       <c r="N28" s="1"/>
@@ -21231,13 +21231,13 @@
       <c r="D29" s="32">
         <v>1857</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="64">
         <v>49</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="67">
         <v>20.546136000000001</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="67">
         <v>14.251353999999997</v>
       </c>
       <c r="H29" s="11">
@@ -21249,15 +21249,15 @@
         <v>1</v>
       </c>
       <c r="K29" s="28">
-        <f>$C29/F29</f>
+        <f t="shared" si="0"/>
         <v>1.2001040000903331</v>
       </c>
       <c r="L29" s="28">
-        <f>$C29/G29</f>
+        <f t="shared" si="1"/>
         <v>1.7301864791233172</v>
       </c>
       <c r="M29" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7549477528050903</v>
       </c>
       <c r="N29" s="1"/>
@@ -21279,13 +21279,13 @@
       <c r="D30" s="32">
         <v>2005</v>
       </c>
-      <c r="E30" s="73">
+      <c r="E30" s="64">
         <v>51</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="67">
         <v>22.415916666666671</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="67">
         <v>15.427351666666667</v>
       </c>
       <c r="H30" s="11">
@@ -21297,15 +21297,15 @@
         <v>1</v>
       </c>
       <c r="K30" s="28">
-        <f>$C30/F30</f>
+        <f t="shared" si="0"/>
         <v>1.1803911655036781</v>
       </c>
       <c r="L30" s="28">
-        <f>$C30/G30</f>
+        <f t="shared" si="1"/>
         <v>1.7151064273183201</v>
       </c>
       <c r="M30" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11011274688334427</v>
       </c>
       <c r="N30" s="1"/>
@@ -21327,13 +21327,13 @@
       <c r="D31" s="32">
         <v>2177</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="64">
         <v>53</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="67">
         <v>24.312622000000001</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="67">
         <v>16.760009999999998</v>
       </c>
       <c r="H31" s="11">
@@ -21345,15 +21345,15 @@
         <v>1</v>
       </c>
       <c r="K31" s="28">
-        <f>$C31/F31</f>
+        <f t="shared" si="0"/>
         <v>1.1795694022635652</v>
       </c>
       <c r="L31" s="28">
-        <f>$C31/G31</f>
+        <f t="shared" si="1"/>
         <v>1.7111221890679067</v>
       </c>
       <c r="M31" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6739855672104957</v>
       </c>
       <c r="N31" s="1"/>
@@ -21375,13 +21375,13 @@
       <c r="D32" s="32">
         <v>2337</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="64">
         <v>55</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="67">
         <v>26.249977999999999</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="67">
         <v>17.978676666666669</v>
       </c>
       <c r="H32" s="11">
@@ -21393,15 +21393,15 @@
         <v>1</v>
       </c>
       <c r="K32" s="28">
-        <f>$C32/F32</f>
+        <f t="shared" si="0"/>
         <v>1.1725854271827074</v>
       </c>
       <c r="L32" s="28">
-        <f>$C32/G32</f>
+        <f t="shared" si="1"/>
         <v>1.7120471232309831</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.692465838444712</v>
       </c>
       <c r="N32" s="1"/>
@@ -21422,13 +21422,13 @@
       <c r="D33" s="32">
         <v>2517</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="64">
         <v>57</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="67">
         <v>27.968824000000001</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="67">
         <v>19.359471666666664</v>
       </c>
       <c r="H33" s="11">
@@ -21440,15 +21440,15 @@
         <v>1</v>
       </c>
       <c r="K33" s="28">
-        <f>$C33/F33</f>
+        <f t="shared" si="0"/>
         <v>1.1859564897449151</v>
       </c>
       <c r="L33" s="28">
-        <f>$C33/G33</f>
+        <f t="shared" si="1"/>
         <v>1.7133633037334097</v>
       </c>
       <c r="M33" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12427280258501712</v>
       </c>
       <c r="N33" s="1"/>
@@ -21472,13 +21472,13 @@
       <c r="D34" s="32">
         <v>2701</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="64">
         <v>59</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="67">
         <v>29.626758000000002</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="67">
         <v>20.774953333333329</v>
       </c>
       <c r="H34" s="11">
@@ -21490,15 +21490,15 @@
         <v>1</v>
       </c>
       <c r="K34" s="28">
-        <f>$C34/F34</f>
+        <f t="shared" si="0"/>
         <v>1.2079856999540752</v>
       </c>
       <c r="L34" s="28">
-        <f>$C34/G34</f>
+        <f t="shared" si="1"/>
         <v>1.722684976749246</v>
       </c>
       <c r="M34" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.735752009015568</v>
       </c>
       <c r="N34" s="1"/>
@@ -21522,13 +21522,13 @@
       <c r="D35" s="32">
         <v>2881</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="64">
         <v>61</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="67">
         <v>32.001202500000005</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="67">
         <v>22.163583333333335</v>
       </c>
       <c r="H35" s="11">
@@ -21540,15 +21540,15 @@
         <v>1</v>
       </c>
       <c r="K35" s="28">
-        <f>$C35/F35</f>
+        <f t="shared" si="0"/>
         <v>1.187903017081936</v>
       </c>
       <c r="L35" s="28">
-        <f>$C35/G35</f>
+        <f t="shared" si="1"/>
         <v>1.7151705312393075</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8354005835919467</v>
       </c>
       <c r="N35" s="1"/>
@@ -21572,13 +21572,13 @@
       <c r="D36" s="32">
         <v>3081</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="64">
         <v>63</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="67">
         <v>34.398510000000002</v>
       </c>
-      <c r="G36" s="76">
+      <c r="G36" s="67">
         <v>23.7030925</v>
       </c>
       <c r="H36" s="11">
@@ -21590,15 +21590,15 @@
         <v>1</v>
       </c>
       <c r="K36" s="28">
-        <f>$C36/F36</f>
+        <f t="shared" si="0"/>
         <v>1.1867146764981003</v>
       </c>
       <c r="L36" s="28">
-        <f>$C36/G36</f>
+        <f t="shared" si="1"/>
         <v>1.7221894850499639</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8048182465429681</v>
       </c>
       <c r="N36" s="1"/>
@@ -21622,13 +21622,13 @@
       <c r="D37" s="32">
         <v>3273</v>
       </c>
-      <c r="E37" s="73">
+      <c r="E37" s="64">
         <v>65</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="67">
         <v>37.014694166666665</v>
       </c>
-      <c r="G37" s="76">
+      <c r="G37" s="67">
         <v>25.174974166666669</v>
       </c>
       <c r="H37" s="11">
@@ -21640,15 +21640,15 @@
         <v>1</v>
       </c>
       <c r="K37" s="28">
-        <f>$C37/F37</f>
+        <f t="shared" si="0"/>
         <v>1.1716358230975523</v>
       </c>
       <c r="L37" s="28">
-        <f>$C37/G37</f>
+        <f t="shared" si="1"/>
         <v>1.7226528766050702</v>
       </c>
       <c r="M37" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7943753753475429</v>
       </c>
       <c r="N37" s="1"/>
@@ -21672,13 +21672,13 @@
       <c r="D38" s="32">
         <v>3481</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="64">
         <v>67</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="67">
         <v>39.236778333333334</v>
       </c>
-      <c r="G38" s="76">
+      <c r="G38" s="67">
         <v>26.753223999999999</v>
       </c>
       <c r="H38" s="11">
@@ -21690,15 +21690,15 @@
         <v>1</v>
       </c>
       <c r="K38" s="28">
-        <f>$C38/F38</f>
+        <f t="shared" si="0"/>
         <v>1.1872111739381255</v>
       </c>
       <c r="L38" s="28">
-        <f>$C38/G38</f>
+        <f t="shared" si="1"/>
         <v>1.7411860965492112</v>
       </c>
       <c r="M38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19485883750773264</v>
       </c>
       <c r="N38" s="1"/>
@@ -21722,13 +21722,13 @@
       <c r="D39" s="32">
         <v>3689</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="64">
         <v>69</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="67">
         <v>41.497979999999998</v>
       </c>
-      <c r="G39" s="76">
+      <c r="G39" s="67">
         <v>28.38080416666666</v>
       </c>
       <c r="H39" s="11">
@@ -21740,15 +21740,15 @@
         <v>1</v>
       </c>
       <c r="K39" s="28">
-        <f>$C39/F39</f>
+        <f t="shared" si="0"/>
         <v>1.1972436168378959</v>
       </c>
       <c r="L39" s="28">
-        <f>$C39/G39</f>
+        <f t="shared" si="1"/>
         <v>1.7505913988518946</v>
       </c>
       <c r="M39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9674884574561387</v>
       </c>
       <c r="N39" s="1"/>
@@ -21770,13 +21770,13 @@
       <c r="D40" s="32">
         <v>3905</v>
       </c>
-      <c r="E40" s="73">
+      <c r="E40" s="64">
         <v>71</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="67">
         <v>44.348063333333329</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G40" s="67">
         <v>30.039156666666667</v>
       </c>
       <c r="H40" s="11">
@@ -21788,15 +21788,15 @@
         <v>1</v>
       </c>
       <c r="K40" s="28">
-        <f>$C40/F40</f>
+        <f t="shared" si="0"/>
         <v>1.1804837174776293</v>
       </c>
       <c r="L40" s="28">
-        <f>$C40/G40</f>
+        <f t="shared" si="1"/>
         <v>1.7427974842169893</v>
       </c>
       <c r="M40" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.21233005554270434</v>
       </c>
       <c r="N40" s="1"/>
@@ -21819,13 +21819,13 @@
       <c r="D41" s="32">
         <v>4137</v>
       </c>
-      <c r="E41" s="73">
+      <c r="E41" s="64">
         <v>73</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="67">
         <v>47.210624000000003</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="67">
         <v>31.838044000000004</v>
       </c>
       <c r="H41" s="11">
@@ -21837,15 +21837,15 @@
         <v>1</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" ref="K41:K49" si="1">$C41/F41</f>
+        <f t="shared" ref="K41:K49" si="3">$C41/F41</f>
         <v>1.1771312321565586</v>
       </c>
       <c r="L41" s="28">
-        <f t="shared" ref="L41:L49" si="2">$C41/G41</f>
+        <f t="shared" ref="L41:L49" si="4">$C41/G41</f>
         <v>1.7454935359722472</v>
       </c>
       <c r="M41" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7135209519207968</v>
       </c>
       <c r="N41" s="1"/>
@@ -21865,13 +21865,13 @@
       <c r="D42" s="32">
         <v>4373</v>
       </c>
-      <c r="E42" s="73">
+      <c r="E42" s="64">
         <v>75</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="67">
         <v>49.859845999999997</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="67">
         <v>33.734268</v>
       </c>
       <c r="H42" s="11">
@@ -21883,15 +21883,15 @@
         <v>1</v>
       </c>
       <c r="K42" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1889777998913196</v>
       </c>
       <c r="L42" s="28">
+        <f t="shared" si="4"/>
+        <v>1.7573302613235895</v>
+      </c>
+      <c r="M42" s="22">
         <f t="shared" si="2"/>
-        <v>1.7573302613235895</v>
-      </c>
-      <c r="M42" s="22">
-        <f t="shared" si="0"/>
         <v>0.25928429867289032</v>
       </c>
       <c r="N42" s="1"/>
@@ -21909,13 +21909,13 @@
       <c r="D43" s="32">
         <v>4609</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="64">
         <v>77</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="67">
         <v>51.410311999999998</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="67">
         <v>35.533755999999997</v>
       </c>
       <c r="H43" s="11">
@@ -21927,15 +21927,15 @@
         <v>1</v>
       </c>
       <c r="K43" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2215438412433677</v>
       </c>
       <c r="L43" s="28">
+        <f t="shared" si="4"/>
+        <v>1.7673321671933586</v>
+      </c>
+      <c r="M43" s="22">
         <f t="shared" si="2"/>
-        <v>1.7673321671933586</v>
-      </c>
-      <c r="M43" s="22">
-        <f t="shared" si="0"/>
         <v>1.826706765045182</v>
       </c>
       <c r="N43" s="1"/>
@@ -21953,13 +21953,13 @@
       <c r="D44" s="32">
         <v>4849</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="64">
         <v>79</v>
       </c>
-      <c r="F44" s="76">
+      <c r="F44" s="67">
         <v>54.993755999999998</v>
       </c>
-      <c r="G44" s="76">
+      <c r="G44" s="67">
         <v>37.405712000000001</v>
       </c>
       <c r="H44" s="11">
@@ -21971,15 +21971,15 @@
         <v>1</v>
       </c>
       <c r="K44" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2188360984108815</v>
       </c>
       <c r="L44" s="28">
+        <f t="shared" si="4"/>
+        <v>1.7919288636986777</v>
+      </c>
+      <c r="M44" s="22">
         <f t="shared" si="2"/>
-        <v>1.7919288636986777</v>
-      </c>
-      <c r="M44" s="22">
-        <f t="shared" si="0"/>
         <v>0.27781144458066981</v>
       </c>
       <c r="N44" s="1"/>
@@ -21997,13 +21997,13 @@
       <c r="D45" s="32">
         <v>5097</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="64">
         <v>81</v>
       </c>
-      <c r="F45" s="76">
+      <c r="F45" s="67">
         <v>58.309044000000007</v>
       </c>
-      <c r="G45" s="76">
+      <c r="G45" s="67">
         <v>39.266621999999998</v>
       </c>
       <c r="H45" s="11">
@@ -22015,15 +22015,15 @@
         <v>1</v>
       </c>
       <c r="K45" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2191256299794591</v>
       </c>
       <c r="L45" s="28">
+        <f t="shared" si="4"/>
+        <v>1.8103428912219646</v>
+      </c>
+      <c r="M45" s="22">
         <f t="shared" si="2"/>
-        <v>1.8103428912219646</v>
-      </c>
-      <c r="M45" s="22">
-        <f t="shared" si="0"/>
         <v>0.2857867212607873</v>
       </c>
       <c r="N45" s="1"/>
@@ -22040,13 +22040,13 @@
       <c r="D46" s="32">
         <v>5361</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="64">
         <v>83</v>
       </c>
-      <c r="F46" s="76">
+      <c r="F46" s="67">
         <v>60.741046000000004</v>
       </c>
-      <c r="G46" s="76">
+      <c r="G46" s="67">
         <v>41.303021999999999</v>
       </c>
       <c r="H46" s="11">
@@ -22058,15 +22058,15 @@
         <v>1</v>
       </c>
       <c r="K46" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2217422136589482</v>
       </c>
       <c r="L46" s="28">
+        <f t="shared" si="4"/>
+        <v>1.7967184096117714</v>
+      </c>
+      <c r="M46" s="22">
         <f t="shared" si="2"/>
-        <v>1.7967184096117714</v>
-      </c>
-      <c r="M46" s="22">
-        <f t="shared" si="0"/>
         <v>0.29086435501322355</v>
       </c>
       <c r="N46" s="1"/>
@@ -22083,13 +22083,13 @@
       <c r="D47" s="32">
         <v>5617</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="64">
         <v>85</v>
       </c>
-      <c r="F47" s="76">
+      <c r="F47" s="67">
         <v>63.931356000000008</v>
       </c>
-      <c r="G47" s="76">
+      <c r="G47" s="67">
         <v>43.310202000000004</v>
       </c>
       <c r="H47" s="11">
@@ -22101,15 +22101,15 @@
         <v>1</v>
       </c>
       <c r="K47" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2243170628196904</v>
       </c>
       <c r="L47" s="28">
+        <f t="shared" si="4"/>
+        <v>1.8072474009703301</v>
+      </c>
+      <c r="M47" s="22">
         <f t="shared" si="2"/>
-        <v>1.8072474009703301</v>
-      </c>
-      <c r="M47" s="22">
-        <f t="shared" si="0"/>
         <v>0.3291210438193386</v>
       </c>
       <c r="N47" s="1"/>
@@ -22126,13 +22126,13 @@
       <c r="D48" s="32">
         <v>5897</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="64">
         <v>87</v>
       </c>
-      <c r="F48" s="76">
+      <c r="F48" s="67">
         <v>66.940643999999992</v>
       </c>
-      <c r="G48" s="76">
+      <c r="G48" s="67">
         <v>45.487355999999998</v>
       </c>
       <c r="H48" s="11">
@@ -22144,15 +22144,15 @@
         <v>1</v>
       </c>
       <c r="K48" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2291829758912989</v>
       </c>
       <c r="L48" s="28">
+        <f t="shared" si="4"/>
+        <v>1.8089048745765748</v>
+      </c>
+      <c r="M48" s="22">
         <f t="shared" si="2"/>
-        <v>1.8089048745765748</v>
-      </c>
-      <c r="M48" s="22">
-        <f t="shared" si="0"/>
         <v>0.33798388559316089</v>
       </c>
       <c r="N48" s="1"/>
@@ -22169,13 +22169,13 @@
       <c r="D49" s="33">
         <v>6161</v>
       </c>
-      <c r="E49" s="74">
+      <c r="E49" s="65">
         <v>89</v>
       </c>
-      <c r="F49" s="77">
+      <c r="F49" s="68">
         <v>69.153402</v>
       </c>
-      <c r="G49" s="77">
+      <c r="G49" s="68">
         <v>47.555355999999996</v>
       </c>
       <c r="H49" s="12">
@@ -22187,15 +22187,15 @@
         <v>1</v>
       </c>
       <c r="K49" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2442298211156697</v>
       </c>
       <c r="L49" s="29">
+        <f t="shared" si="4"/>
+        <v>1.8093172302190315</v>
+      </c>
+      <c r="M49" s="23">
         <f t="shared" si="2"/>
-        <v>1.8093172302190315</v>
-      </c>
-      <c r="M49" s="23">
-        <f t="shared" si="0"/>
         <v>0.37485330895445707</v>
       </c>
       <c r="N49" s="1"/>
@@ -22891,16 +22891,16 @@
       <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="60" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="61"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="38"/>
@@ -23344,16 +23344,16 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="61"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="75"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="14" t="s">
@@ -23916,17 +23916,17 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="61"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:12">
@@ -25391,34 +25391,34 @@
       <c r="AQ3" s="59"/>
     </row>
     <row r="4" spans="2:43" ht="15">
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
       <c r="N4" s="59"/>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="U4" s="80" t="s">
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="80"/>
-      <c r="X4" s="80"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
       <c r="AK4" s="59"/>
@@ -25516,28 +25516,28 @@
       <c r="D6" s="24">
         <v>0.61012181818181821</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="61">
         <v>0.31464636363636361</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="61">
         <v>0.30310090909090903</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="61">
         <v>0.29596090909090905</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="61">
         <v>0.26689999999999997</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="61">
         <v>0.22850454545454549</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="61">
         <v>0.147011</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="61">
         <v>0.17655666666666667</v>
       </c>
-      <c r="L6" s="70">
+      <c r="L6" s="61">
         <v>0.10075727272727274</v>
       </c>
       <c r="N6" s="15">
@@ -25548,39 +25548,39 @@
         <v>1</v>
       </c>
       <c r="P6" s="1">
-        <f>$C6/D6</f>
+        <f t="shared" ref="P6:P19" si="0">$C6/D6</f>
         <v>0.2763866083375302</v>
       </c>
       <c r="Q6" s="1">
-        <f>$C6/E6</f>
+        <f t="shared" ref="Q6:Q19" si="1">$C6/E6</f>
         <v>0.53593341442485209</v>
       </c>
       <c r="R6" s="1">
-        <f>$C6/F6</f>
+        <f t="shared" ref="R6:R19" si="2">$C6/F6</f>
         <v>0.55634772098101148</v>
       </c>
       <c r="S6" s="1">
-        <f>$C6/G6</f>
+        <f t="shared" ref="S6:S19" si="3">$C6/G6</f>
         <v>0.56976950272916882</v>
       </c>
       <c r="T6" s="1">
-        <f>$C6/H6</f>
+        <f t="shared" ref="T6:T19" si="4">$C6/H6</f>
         <v>0.63180779318096669</v>
       </c>
       <c r="U6" s="1">
-        <f>$C6/I6</f>
+        <f t="shared" ref="U6:U19" si="5">$C6/I6</f>
         <v>0.73797000258598378</v>
       </c>
       <c r="V6" s="1">
-        <f>$C6/J6</f>
+        <f t="shared" ref="V6:V19" si="6">$C6/J6</f>
         <v>1.1470536218378216</v>
       </c>
       <c r="W6" s="1">
-        <f>$C6/K6</f>
+        <f t="shared" ref="W6:W19" si="7">$C6/K6</f>
         <v>0.95510128948213036</v>
       </c>
       <c r="X6" s="1">
-        <f>$C6/L6</f>
+        <f t="shared" ref="X6:X19" si="8">$C6/L6</f>
         <v>1.6736211236725522</v>
       </c>
       <c r="AI6" s="1"/>
@@ -25603,28 +25603,28 @@
       <c r="D7" s="25">
         <v>1.9610609090909092</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="61">
         <v>0.4200109090909091</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="61">
         <v>0.34929181818181815</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="61">
         <v>0.33744454545454544</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="61">
         <v>0.28668727272727274</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="61">
         <v>0.403969090909091</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="61">
         <v>0.2668618181818182</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="61">
         <v>0.28580624999999998</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="61">
         <v>0.13253727272727273</v>
       </c>
       <c r="N7" s="16">
@@ -25635,39 +25635,39 @@
         <v>1</v>
       </c>
       <c r="P7" s="1">
-        <f>$C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.19201354137162305</v>
       </c>
       <c r="Q7" s="1">
-        <f>$C7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.89652492792395011</v>
       </c>
       <c r="R7" s="1">
-        <f>$C7/F7</f>
+        <f t="shared" si="2"/>
         <v>1.0780391363303934</v>
       </c>
       <c r="S7" s="1">
-        <f>$C7/G7</f>
+        <f t="shared" si="3"/>
         <v>1.115887795705153</v>
       </c>
       <c r="T7" s="1">
-        <f>$C7/H7</f>
+        <f t="shared" si="4"/>
         <v>1.3134529706109921</v>
       </c>
       <c r="U7" s="1">
-        <f>$C7/I7</f>
+        <f t="shared" si="5"/>
         <v>0.93212638905766854</v>
       </c>
       <c r="V7" s="1">
-        <f>$C7/J7</f>
+        <f t="shared" si="6"/>
         <v>1.4110308194911905</v>
       </c>
       <c r="W7" s="1">
-        <f>$C7/K7</f>
+        <f t="shared" si="7"/>
         <v>1.3175018041068034</v>
       </c>
       <c r="X7" s="1">
-        <f>$C7/L7</f>
+        <f t="shared" si="8"/>
         <v>2.8410894705434493</v>
       </c>
       <c r="AI7" s="1"/>
@@ -25690,28 +25690,28 @@
       <c r="D8" s="25">
         <v>3.8216263636363639</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="61">
         <v>0.72633272727272724</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="61">
         <v>0.45031363636363636</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="61">
         <v>0.38615999999999995</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="61">
         <v>0.32970545454545452</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="61">
         <v>0.71001727272727255</v>
       </c>
-      <c r="J8" s="70">
+      <c r="J8" s="61">
         <v>0.43296250000000008</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="61">
         <v>0.32319090909090908</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="61">
         <v>0.18968818181818181</v>
       </c>
       <c r="N8" s="16">
@@ -25722,39 +25722,39 @@
         <v>1</v>
       </c>
       <c r="P8" s="1">
-        <f>$C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.13578551397322747</v>
       </c>
       <c r="Q8" s="1">
-        <f>$C8/E8</f>
+        <f t="shared" si="1"/>
         <v>0.71444047681628498</v>
       </c>
       <c r="R8" s="1">
-        <f>$C8/F8</f>
+        <f t="shared" si="2"/>
         <v>1.1523557318636504</v>
       </c>
       <c r="S8" s="1">
-        <f>$C8/G8</f>
+        <f t="shared" si="3"/>
         <v>1.3437992024031489</v>
       </c>
       <c r="T8" s="1">
-        <f>$C8/H8</f>
+        <f t="shared" si="4"/>
         <v>1.5738941920612335</v>
       </c>
       <c r="U8" s="1">
-        <f>$C8/I8</f>
+        <f t="shared" si="5"/>
         <v>0.73085757196687928</v>
       </c>
       <c r="V8" s="1">
-        <f>$C8/J8</f>
+        <f t="shared" si="6"/>
         <v>1.1985368247827464</v>
       </c>
       <c r="W8" s="1">
-        <f>$C8/K8</f>
+        <f t="shared" si="7"/>
         <v>1.605619110573542</v>
       </c>
       <c r="X8" s="1">
-        <f>$C8/L8</f>
+        <f t="shared" si="8"/>
         <v>2.7356554057616083</v>
       </c>
       <c r="AI8" s="1"/>
@@ -25777,28 +25777,28 @@
       <c r="D9" s="25">
         <v>6.5630218181818183</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="61">
         <v>1.1712327272727274</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="61">
         <v>0.68576636363636367</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="61">
         <v>0.51488909090909085</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="61">
         <v>0.37262545454545448</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="61">
         <v>1.1611418181818181</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="61">
         <v>0.67061636363636368</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="61">
         <v>0.51886909090909084</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L9" s="61">
         <v>0.26396909090909088</v>
       </c>
       <c r="N9" s="16">
@@ -25809,39 +25809,39 @@
         <v>1</v>
       </c>
       <c r="P9" s="1">
-        <f>$C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.12828397090918761</v>
       </c>
       <c r="Q9" s="1">
-        <f>$C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.71884133733222799</v>
       </c>
       <c r="R9" s="1">
-        <f>$C9/F9</f>
+        <f t="shared" si="2"/>
         <v>1.2277220707290981</v>
       </c>
       <c r="S9" s="1">
-        <f>$C9/G9</f>
+        <f t="shared" si="3"/>
         <v>1.6351686506184917</v>
       </c>
       <c r="T9" s="1">
-        <f>$C9/H9</f>
+        <f t="shared" si="4"/>
         <v>2.2594551438441726</v>
       </c>
       <c r="U9" s="1">
-        <f>$C9/I9</f>
+        <f t="shared" si="5"/>
         <v>0.72508843176309223</v>
       </c>
       <c r="V9" s="1">
-        <f>$C9/J9</f>
+        <f t="shared" si="6"/>
         <v>1.255457733591079</v>
       </c>
       <c r="W9" s="1">
-        <f>$C9/K9</f>
+        <f t="shared" si="7"/>
         <v>1.6226260433530268</v>
       </c>
       <c r="X9" s="1">
-        <f>$C9/L9</f>
+        <f t="shared" si="8"/>
         <v>3.1895041086077578</v>
       </c>
       <c r="AI9" s="1"/>
@@ -25864,28 +25864,28 @@
       <c r="D10" s="25">
         <v>10.265405454545455</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="61">
         <v>1.7835645454545457</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="61">
         <v>1.0156263636363638</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="61">
         <v>0.73808090909090895</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="61">
         <v>0.45239363636363628</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="61">
         <v>1.7667163636363634</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="61">
         <v>0.99524090909090901</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="61">
         <v>0.93954636363636368</v>
       </c>
-      <c r="L10" s="70">
+      <c r="L10" s="61">
         <v>0.36471818181818177</v>
       </c>
       <c r="N10" s="16">
@@ -25896,39 +25896,39 @@
         <v>1</v>
       </c>
       <c r="P10" s="1">
-        <f>$C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.1246715653203915</v>
       </c>
       <c r="Q10" s="1">
-        <f>$C10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.7175541641754859</v>
       </c>
       <c r="R10" s="1">
-        <f>$C10/F10</f>
+        <f t="shared" si="2"/>
         <v>1.2601131798946581</v>
       </c>
       <c r="S10" s="1">
-        <f>$C10/G10</f>
+        <f t="shared" si="3"/>
         <v>1.7339618880577687</v>
       </c>
       <c r="T10" s="1">
-        <f>$C10/H10</f>
+        <f t="shared" si="4"/>
         <v>2.8289614702669112</v>
       </c>
       <c r="U10" s="1">
-        <f>$C10/I10</f>
+        <f t="shared" si="5"/>
         <v>0.72439707527952923</v>
       </c>
       <c r="V10" s="1">
-        <f>$C10/J10</f>
+        <f t="shared" si="6"/>
         <v>1.2859239958651707</v>
       </c>
       <c r="W10" s="1">
-        <f>$C10/K10</f>
+        <f t="shared" si="7"/>
         <v>1.3621511574089753</v>
       </c>
       <c r="X10" s="1">
-        <f>$C10/L10</f>
+        <f t="shared" si="8"/>
         <v>3.5090221175336715</v>
       </c>
       <c r="AI10" s="1"/>
@@ -25951,28 +25951,28 @@
       <c r="D11" s="25">
         <v>13.96572818181818</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="61">
         <v>2.3833954545454543</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="61">
         <v>1.3326345454545456</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="61">
         <v>0.95385818181818172</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="61">
         <v>0.58261249999999998</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="61">
         <v>2.3704436363636359</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="61">
         <v>1.320722</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="61">
         <v>0.94276818181818201</v>
       </c>
-      <c r="L11" s="70">
+      <c r="L11" s="61">
         <v>0.47395500000000002</v>
       </c>
       <c r="N11" s="16">
@@ -25983,39 +25983,39 @@
         <v>1</v>
       </c>
       <c r="P11" s="1">
-        <f>$C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.12182739855615814</v>
       </c>
       <c r="Q11" s="1">
-        <f>$C11/E11</f>
+        <f t="shared" si="1"/>
         <v>0.7138590157535627</v>
       </c>
       <c r="R11" s="1">
-        <f>$C11/F11</f>
+        <f t="shared" si="2"/>
         <v>1.2767253701599062</v>
       </c>
       <c r="S11" s="1">
-        <f>$C11/G11</f>
+        <f t="shared" si="3"/>
         <v>1.7837120504541049</v>
       </c>
       <c r="T11" s="1">
-        <f>$C11/H11</f>
+        <f t="shared" si="4"/>
         <v>2.9203086671386784</v>
       </c>
       <c r="U11" s="1">
-        <f>$C11/I11</f>
+        <f t="shared" si="5"/>
         <v>0.71775945533274432</v>
       </c>
       <c r="V11" s="1">
-        <f>$C11/J11</f>
+        <f t="shared" si="6"/>
         <v>1.288241078238519</v>
       </c>
       <c r="W11" s="1">
-        <f>$C11/K11</f>
+        <f t="shared" si="7"/>
         <v>1.8046942675261595</v>
       </c>
       <c r="X11" s="1">
-        <f>$C11/L11</f>
+        <f t="shared" si="8"/>
         <v>3.589809862399032</v>
       </c>
       <c r="AI11" s="1"/>
@@ -26038,28 +26038,28 @@
       <c r="D12" s="25">
         <v>19.777363636363635</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="61">
         <v>3.2969172727272733</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="61">
         <v>1.8227763636363639</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="61">
         <v>1.2928472727272726</v>
       </c>
-      <c r="H12" s="70">
+      <c r="H12" s="61">
         <v>0.74077500000000007</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="61">
         <v>3.2730799999999998</v>
       </c>
-      <c r="J12" s="70">
+      <c r="J12" s="61">
         <v>1.8009909999999998</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="61">
         <v>1.2720175</v>
       </c>
-      <c r="L12" s="70">
+      <c r="L12" s="61">
         <v>0.62119999999999997</v>
       </c>
       <c r="N12" s="16">
@@ -26070,39 +26070,39 @@
         <v>1</v>
       </c>
       <c r="P12" s="1">
-        <f>$C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.12020004504690855</v>
       </c>
       <c r="Q12" s="1">
-        <f>$C12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.72104933286163453</v>
       </c>
       <c r="R12" s="1">
-        <f>$C12/F12</f>
+        <f t="shared" si="2"/>
         <v>1.3041863211664124</v>
       </c>
       <c r="S12" s="1">
-        <f>$C12/G12</f>
+        <f t="shared" si="3"/>
         <v>1.8387632090410737</v>
       </c>
       <c r="T12" s="1">
-        <f>$C12/H12</f>
+        <f t="shared" si="4"/>
         <v>3.2091255779420198</v>
       </c>
       <c r="U12" s="1">
-        <f>$C12/I12</f>
+        <f t="shared" si="5"/>
         <v>0.72630060982316358</v>
       </c>
       <c r="V12" s="1">
-        <f>$C12/J12</f>
+        <f t="shared" si="6"/>
         <v>1.3199621763795601</v>
       </c>
       <c r="W12" s="1">
-        <f>$C12/K12</f>
+        <f t="shared" si="7"/>
         <v>1.8688736593639632</v>
       </c>
       <c r="X12" s="1">
-        <f>$C12/L12</f>
+        <f t="shared" si="8"/>
         <v>3.8268512556342564</v>
       </c>
       <c r="AI12" s="1"/>
@@ -26125,28 +26125,28 @@
       <c r="D13" s="25">
         <v>24.589504545454545</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="61">
         <v>3.9442009090909091</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="61">
         <v>2.1654745454545452</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="61">
         <v>1.5254345454545453</v>
       </c>
-      <c r="H13" s="70">
+      <c r="H13" s="61">
         <v>0.8058909090909091</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="61">
         <v>3.9264769999999998</v>
       </c>
-      <c r="J13" s="70">
+      <c r="J13" s="61">
         <v>2.1461230000000002</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="61">
         <v>1.5074669999999999</v>
       </c>
-      <c r="L13" s="70">
+      <c r="L13" s="61">
         <v>0.72852299999999992</v>
       </c>
       <c r="N13" s="16">
@@ -26157,39 +26157,39 @@
         <v>1</v>
       </c>
       <c r="P13" s="1">
-        <f>$C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.11949549428978477</v>
       </c>
       <c r="Q13" s="1">
-        <f>$C13/E13</f>
+        <f t="shared" si="1"/>
         <v>0.74497599582908958</v>
       </c>
       <c r="R13" s="1">
-        <f>$C13/F13</f>
+        <f t="shared" si="2"/>
         <v>1.3569011957068411</v>
       </c>
       <c r="S13" s="1">
-        <f>$C13/G13</f>
+        <f t="shared" si="3"/>
         <v>1.9262281746244592</v>
       </c>
       <c r="T13" s="1">
-        <f>$C13/H13</f>
+        <f t="shared" si="4"/>
         <v>3.6460704133200981</v>
       </c>
       <c r="U13" s="1">
-        <f>$C13/I13</f>
+        <f t="shared" si="5"/>
         <v>0.74833877799360615</v>
       </c>
       <c r="V13" s="1">
-        <f>$C13/J13</f>
+        <f t="shared" si="6"/>
         <v>1.3691363449345635</v>
       </c>
       <c r="W13" s="1">
-        <f>$C13/K13</f>
+        <f t="shared" si="7"/>
         <v>1.9491869473759629</v>
       </c>
       <c r="X13" s="1">
-        <f>$C13/L13</f>
+        <f t="shared" si="8"/>
         <v>4.0332769178186556</v>
       </c>
       <c r="AI13" s="1"/>
@@ -26212,28 +26212,28 @@
       <c r="D14" s="25">
         <v>30.938029090909087</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="61">
         <v>4.9919190909090911</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="61">
         <v>2.7478472727272729</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="61">
         <v>1.9320918181818181</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="61">
         <v>1.051930909090909</v>
       </c>
-      <c r="I14" s="70">
+      <c r="I14" s="61">
         <v>4.9540449999999998</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="61">
         <v>2.7033560000000003</v>
       </c>
-      <c r="K14" s="70">
+      <c r="K14" s="61">
         <v>1.8943220000000001</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="61">
         <v>0.91443199999999991</v>
       </c>
       <c r="N14" s="16">
@@ -26244,39 +26244,39 @@
         <v>1</v>
       </c>
       <c r="P14" s="1">
-        <f>$C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.11677397600379943</v>
       </c>
       <c r="Q14" s="1">
-        <f>$C14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.723720998051821</v>
       </c>
       <c r="R14" s="1">
-        <f>$C14/F14</f>
+        <f t="shared" si="2"/>
         <v>1.3147589032781142</v>
       </c>
       <c r="S14" s="1">
-        <f>$C14/G14</f>
+        <f t="shared" si="3"/>
         <v>1.8698680014423055</v>
       </c>
       <c r="T14" s="1">
-        <f>$C14/H14</f>
+        <f t="shared" si="4"/>
         <v>3.4344048981209734</v>
       </c>
       <c r="U14" s="1">
-        <f>$C14/I14</f>
+        <f t="shared" si="5"/>
         <v>0.72925390598322515</v>
       </c>
       <c r="V14" s="1">
-        <f>$C14/J14</f>
+        <f t="shared" si="6"/>
         <v>1.33639693280007</v>
       </c>
       <c r="W14" s="1">
-        <f>$C14/K14</f>
+        <f t="shared" si="7"/>
         <v>1.9071502451360784</v>
       </c>
       <c r="X14" s="1">
-        <f>$C14/L14</f>
+        <f t="shared" si="8"/>
         <v>3.9508204728910044</v>
       </c>
       <c r="AI14" s="1"/>
@@ -26299,28 +26299,28 @@
       <c r="D15" s="25">
         <v>38.46659727272727</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="61">
         <v>6.0992018181818191</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="61">
         <v>3.3328781818181823</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="61">
         <v>2.3355354545454547</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="61">
         <v>1.2514554545454546</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="61">
         <v>6.0679660000000002</v>
       </c>
-      <c r="J15" s="70">
+      <c r="J15" s="61">
         <v>3.2984339999999994</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="61">
         <v>2.3044680000000004</v>
       </c>
-      <c r="L15" s="70">
+      <c r="L15" s="61">
         <v>1.109677</v>
       </c>
       <c r="N15" s="16">
@@ -26331,39 +26331,39 @@
         <v>1</v>
       </c>
       <c r="P15" s="1">
-        <f>$C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.11651086876468372</v>
       </c>
       <c r="Q15" s="1">
-        <f>$C15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.73481363631982455</v>
       </c>
       <c r="R15" s="1">
-        <f>$C15/F15</f>
+        <f t="shared" si="2"/>
         <v>1.344716614941422</v>
       </c>
       <c r="S15" s="1">
-        <f>$C15/G15</f>
+        <f t="shared" si="3"/>
         <v>1.9189503879909704</v>
       </c>
       <c r="T15" s="1">
-        <f>$C15/H15</f>
+        <f t="shared" si="4"/>
         <v>3.5812514543671945</v>
       </c>
       <c r="U15" s="1">
-        <f>$C15/I15</f>
+        <f t="shared" si="5"/>
         <v>0.73859620615320976</v>
       </c>
       <c r="V15" s="1">
-        <f>$C15/J15</f>
+        <f t="shared" si="6"/>
         <v>1.3587589342902324</v>
       </c>
       <c r="W15" s="1">
-        <f>$C15/K15</f>
+        <f t="shared" si="7"/>
         <v>1.9448205254603956</v>
       </c>
       <c r="X15" s="1">
-        <f>$C15/L15</f>
+        <f t="shared" si="8"/>
         <v>4.0388118945122473</v>
       </c>
       <c r="AI15" s="1"/>
@@ -26386,28 +26386,28 @@
       <c r="D16" s="25">
         <v>46.382110000000004</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="61">
         <v>7.3215045454545455</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="61">
         <v>3.9898790909090907</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="61">
         <v>2.7878890909090912</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="61">
         <v>1.4271918181818182</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="61">
         <v>7.2829119999999987</v>
       </c>
-      <c r="J16" s="70">
+      <c r="J16" s="61">
         <v>3.9461219999999999</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="61">
         <v>2.7489240000000001</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="61">
         <v>1.3526899999999997</v>
       </c>
       <c r="N16" s="16">
@@ -26418,39 +26418,39 @@
         <v>1</v>
       </c>
       <c r="P16" s="1">
-        <f>$C16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.11595163882511308</v>
       </c>
       <c r="Q16" s="1">
-        <f>$C16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.73455962955122034</v>
       </c>
       <c r="R16" s="1">
-        <f>$C16/F16</f>
+        <f t="shared" si="2"/>
         <v>1.3479309884153095</v>
       </c>
       <c r="S16" s="1">
-        <f>$C16/G16</f>
+        <f t="shared" si="3"/>
         <v>1.9290873816335894</v>
       </c>
       <c r="T16" s="1">
-        <f>$C16/H16</f>
+        <f t="shared" si="4"/>
         <v>3.76829631318803</v>
       </c>
       <c r="U16" s="1">
-        <f>$C16/I16</f>
+        <f t="shared" si="5"/>
         <v>0.73845210084464397</v>
       </c>
       <c r="V16" s="1">
-        <f>$C16/J16</f>
+        <f t="shared" si="6"/>
         <v>1.3628776978174184</v>
       </c>
       <c r="W16" s="1">
-        <f>$C16/K16</f>
+        <f t="shared" si="7"/>
         <v>1.9564315589178407</v>
       </c>
       <c r="X16" s="1">
-        <f>$C16/L16</f>
+        <f t="shared" si="8"/>
         <v>3.9758419642835148</v>
       </c>
       <c r="AI16" s="1"/>
@@ -26473,28 +26473,28 @@
       <c r="D17" s="25">
         <v>55.01072727272728</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="61">
         <v>8.6263736363636365</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="61">
         <v>4.6820409090909081</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="61">
         <v>3.2650099999999997</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="61">
         <v>1.6309609090909092</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="61">
         <v>8.5888559999999998</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="61">
         <v>4.6452109999999998</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="61">
         <v>3.2322010000000008</v>
       </c>
-      <c r="L17" s="70">
+      <c r="L17" s="61">
         <v>1.529366</v>
       </c>
       <c r="N17" s="16">
@@ -26505,39 +26505,39 @@
         <v>1</v>
       </c>
       <c r="P17" s="1">
-        <f>$C17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.1169534922665221</v>
       </c>
       <c r="Q17" s="1">
-        <f>$C17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.74581706495369571</v>
       </c>
       <c r="R17" s="1">
-        <f>$C17/F17</f>
+        <f t="shared" si="2"/>
         <v>1.3741222666753397</v>
       </c>
       <c r="S17" s="1">
-        <f>$C17/G17</f>
+        <f t="shared" si="3"/>
         <v>1.9704983037315864</v>
       </c>
       <c r="T17" s="1">
-        <f>$C17/H17</f>
+        <f t="shared" si="4"/>
         <v>3.9447276944563816</v>
       </c>
       <c r="U17" s="1">
-        <f>$C17/I17</f>
+        <f t="shared" si="5"/>
         <v>0.74907492530631159</v>
       </c>
       <c r="V17" s="1">
-        <f>$C17/J17</f>
+        <f t="shared" si="6"/>
         <v>1.3850170996896947</v>
       </c>
       <c r="W17" s="1">
-        <f>$C17/K17</f>
+        <f t="shared" si="7"/>
         <v>1.9905001782583027</v>
       </c>
       <c r="X17" s="1">
-        <f>$C17/L17</f>
+        <f t="shared" si="8"/>
         <v>4.2067737001258472</v>
       </c>
       <c r="AI17" s="1"/>
@@ -26560,28 +26560,28 @@
       <c r="D18" s="25">
         <v>64.418211818181817</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="61">
         <v>9.9881809090909108</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="61">
         <v>5.4088809090909091</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="61">
         <v>3.7749799999999998</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="61">
         <v>1.8739790909090908</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="61">
         <v>9.9482559999999989</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="61">
         <v>5.376866999999999</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="61">
         <v>3.7349210000000008</v>
       </c>
-      <c r="L18" s="70">
+      <c r="L18" s="61">
         <v>1.7637900000000002</v>
       </c>
       <c r="N18" s="16">
@@ -26592,39 +26592,39 @@
         <v>1</v>
       </c>
       <c r="P18" s="1">
-        <f>$C18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.11444536607351942</v>
       </c>
       <c r="Q18" s="1">
-        <f>$C18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.73810896102444945</v>
       </c>
       <c r="R18" s="1">
-        <f>$C18/F18</f>
+        <f t="shared" si="2"/>
         <v>1.3630113062652796</v>
       </c>
       <c r="S18" s="1">
-        <f>$C18/G18</f>
+        <f t="shared" si="3"/>
         <v>1.9529549383926097</v>
       </c>
       <c r="T18" s="1">
-        <f>$C18/H18</f>
+        <f t="shared" si="4"/>
         <v>3.9340704862170615</v>
       </c>
       <c r="U18" s="1">
-        <f>$C18/I18</f>
+        <f t="shared" si="5"/>
         <v>0.74107118205777311</v>
       </c>
       <c r="V18" s="1">
-        <f>$C18/J18</f>
+        <f t="shared" si="6"/>
         <v>1.3711266864762202</v>
       </c>
       <c r="W18" s="1">
-        <f>$C18/K18</f>
+        <f t="shared" si="7"/>
         <v>1.9739014113908517</v>
       </c>
       <c r="X18" s="1">
-        <f>$C18/L18</f>
+        <f t="shared" si="8"/>
         <v>4.179843310900579</v>
       </c>
       <c r="AI18" s="1"/>
@@ -26647,28 +26647,28 @@
       <c r="D19" s="25">
         <v>75.181515454545448</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="61">
         <v>9.9881809090909108</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="61">
         <v>6.2030718181818179</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="61">
         <v>4.3117872727272735</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="61">
         <v>2.1157781818181816</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="61">
         <v>11.415576</v>
       </c>
-      <c r="J19" s="70">
+      <c r="J19" s="61">
         <v>6.1554219999999997</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="61">
         <v>4.2691210000000002</v>
       </c>
-      <c r="L19" s="70">
+      <c r="L19" s="61">
         <v>2.0312009999999998</v>
       </c>
       <c r="N19" s="16">
@@ -26679,39 +26679,39 @@
         <v>1</v>
       </c>
       <c r="P19" s="1">
-        <f>$C19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.11308312664265827</v>
       </c>
       <c r="Q19" s="1">
-        <f>$C19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.85118210319912324</v>
       </c>
       <c r="R19" s="1">
-        <f>$C19/F19</f>
+        <f t="shared" si="2"/>
         <v>1.3705726908422742</v>
       </c>
       <c r="S19" s="1">
-        <f>$C19/G19</f>
+        <f t="shared" si="3"/>
         <v>1.9717486730174039</v>
       </c>
       <c r="T19" s="1">
-        <f>$C19/H19</f>
+        <f t="shared" si="4"/>
         <v>4.0182666152778808</v>
       </c>
       <c r="U19" s="1">
-        <f>$C19/I19</f>
+        <f t="shared" si="5"/>
         <v>0.74475092919825792</v>
       </c>
       <c r="V19" s="1">
-        <f>$C19/J19</f>
+        <f t="shared" si="6"/>
         <v>1.3811824491210078</v>
       </c>
       <c r="W19" s="1">
-        <f>$C19/K19</f>
+        <f t="shared" si="7"/>
         <v>1.9914546421460839</v>
       </c>
       <c r="X19" s="1">
-        <f>$C19/L19</f>
+        <f t="shared" si="8"/>
         <v>4.1855832255563739</v>
       </c>
       <c r="AI19" s="1"/>
@@ -26734,16 +26734,16 @@
       <c r="D20" s="25">
         <v>85.889415454545471</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="61">
         <v>13.023101818181818</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="61">
         <v>7.0397163636363622</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="61">
         <v>4.8892727272727274</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="61">
         <v>2.3838481818181814</v>
       </c>
       <c r="I20" s="40"/>
@@ -26758,23 +26758,23 @@
         <v>1</v>
       </c>
       <c r="P20" s="1">
-        <f>$C20/D20</f>
+        <f t="shared" ref="P20:P49" si="9">$C20/D20</f>
         <v>0.11240730244705671</v>
       </c>
       <c r="Q20" s="1">
-        <f>$C20/E20</f>
+        <f t="shared" ref="Q20:Q49" si="10">$C20/E20</f>
         <v>0.74134393132986331</v>
       </c>
       <c r="R20" s="1">
-        <f>$C20/F20</f>
+        <f t="shared" ref="R20:R49" si="11">$C20/F20</f>
         <v>1.3714469449182356</v>
       </c>
       <c r="S20" s="1">
-        <f>$C20/G20</f>
+        <f t="shared" ref="S20:S49" si="12">$C20/G20</f>
         <v>1.9746489996653154</v>
       </c>
       <c r="T20" s="1">
-        <f>$C20/H20</f>
+        <f t="shared" ref="T20:T49" si="13">$C20/H20</f>
         <v>4.0500051864193614</v>
       </c>
       <c r="U20" s="1"/>
@@ -26801,16 +26801,16 @@
       <c r="D21" s="25">
         <v>97.171768181818194</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="61">
         <v>14.110052727272729</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="61">
         <v>7.6168490909090911</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="61">
         <v>5.2818490909090912</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="61">
         <v>2.5456372727272729</v>
       </c>
       <c r="I21" s="40"/>
@@ -26825,23 +26825,23 @@
         <v>1</v>
       </c>
       <c r="P21" s="1">
-        <f>$C21/D21</f>
+        <f t="shared" si="9"/>
         <v>0.11304080604406749</v>
       </c>
       <c r="Q21" s="1">
-        <f>$C21/E21</f>
+        <f t="shared" si="10"/>
         <v>0.77847866427662338</v>
       </c>
       <c r="R21" s="1">
-        <f>$C21/F21</f>
+        <f t="shared" si="11"/>
         <v>1.4421153509671263</v>
       </c>
       <c r="S21" s="1">
-        <f>$C21/G21</f>
+        <f t="shared" si="12"/>
         <v>2.0796457473398604</v>
       </c>
       <c r="T21" s="1">
-        <f>$C21/H21</f>
+        <f t="shared" si="13"/>
         <v>4.3149804246195185</v>
       </c>
       <c r="U21" s="1"/>
@@ -26868,16 +26868,16 @@
       <c r="D22" s="25">
         <v>110.48351636363637</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="61">
         <v>15.972100909090909</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="61">
         <v>8.6306454545454532</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="61">
         <v>6.0007272727272722</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="61">
         <v>2.9168790909090911</v>
       </c>
       <c r="I22" s="40"/>
@@ -26892,23 +26892,23 @@
         <v>1</v>
       </c>
       <c r="P22" s="1">
-        <f>$C22/D22</f>
+        <f t="shared" si="9"/>
         <v>0.11330513738174416</v>
       </c>
       <c r="Q22" s="1">
-        <f>$C22/E22</f>
+        <f t="shared" si="10"/>
         <v>0.78376351810267342</v>
       </c>
       <c r="R22" s="1">
-        <f>$C22/F22</f>
+        <f t="shared" si="11"/>
         <v>1.4504535107982022</v>
       </c>
       <c r="S22" s="1">
-        <f>$C22/G22</f>
+        <f t="shared" si="12"/>
         <v>2.0861388013574111</v>
       </c>
       <c r="T22" s="1">
-        <f>$C22/H22</f>
+        <f t="shared" si="13"/>
         <v>4.2916931452576792</v>
       </c>
       <c r="U22" s="1"/>
@@ -26935,16 +26935,16 @@
       <c r="D23" s="25">
         <v>122.31469727272726</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="61">
         <v>17.666840000000001</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="61">
         <v>9.5275345454545448</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="61">
         <v>6.6110109090909104</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="61">
         <v>3.201565454545455</v>
       </c>
       <c r="I23" s="40"/>
@@ -26959,23 +26959,23 @@
         <v>1</v>
       </c>
       <c r="P23" s="1">
-        <f>$C23/D23</f>
+        <f t="shared" si="9"/>
         <v>0.11438213868503096</v>
       </c>
       <c r="Q23" s="1">
-        <f>$C23/E23</f>
+        <f t="shared" si="10"/>
         <v>0.79191392839164598</v>
       </c>
       <c r="R23" s="1">
-        <f>$C23/F23</f>
+        <f t="shared" si="11"/>
         <v>1.4684404029100475</v>
       </c>
       <c r="S23" s="1">
-        <f>$C23/G23</f>
+        <f t="shared" si="12"/>
         <v>2.1162598064129554</v>
       </c>
       <c r="T23" s="1">
-        <f>$C23/H23</f>
+        <f t="shared" si="13"/>
         <v>4.369929918753761</v>
       </c>
       <c r="U23" s="1"/>
@@ -27002,16 +27002,16 @@
       <c r="D24" s="25">
         <v>136.35035272727271</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="61">
         <v>19.675001818181823</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="61">
         <v>10.601859090909091</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="61">
         <v>7.3535245454545448</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="61">
         <v>3.5326272727272725</v>
       </c>
       <c r="I24" s="40"/>
@@ -27026,23 +27026,23 @@
         <v>1</v>
       </c>
       <c r="P24" s="1">
-        <f>$C24/D24</f>
+        <f t="shared" si="9"/>
         <v>0.11257769434624305</v>
       </c>
       <c r="Q24" s="1">
-        <f>$C24/E24</f>
+        <f t="shared" si="10"/>
         <v>0.78017824217674392</v>
       </c>
       <c r="R24" s="1">
-        <f>$C24/F24</f>
+        <f t="shared" si="11"/>
         <v>1.4478600594206821</v>
       </c>
       <c r="S24" s="1">
-        <f>$C24/G24</f>
+        <f t="shared" si="12"/>
         <v>2.0874355199945147</v>
       </c>
       <c r="T24" s="1">
-        <f>$C24/H24</f>
+        <f t="shared" si="13"/>
         <v>4.3452102778685626</v>
       </c>
       <c r="U24" s="1"/>
@@ -27069,16 +27069,16 @@
       <c r="D25" s="25">
         <v>151.63756636363635</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="61">
         <v>21.677938181818181</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="61">
         <v>11.672646363636364</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="61">
         <v>8.0828872727272749</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="61">
         <v>3.8704145454545453</v>
       </c>
       <c r="I25" s="40"/>
@@ -27093,23 +27093,23 @@
         <v>1</v>
       </c>
       <c r="P25" s="1">
-        <f>$C25/D25</f>
+        <f t="shared" si="9"/>
         <v>0.11265298836988243</v>
       </c>
       <c r="Q25" s="1">
-        <f>$C25/E25</f>
+        <f t="shared" si="10"/>
         <v>0.78800967401629785</v>
       </c>
       <c r="R25" s="1">
-        <f>$C25/F25</f>
+        <f t="shared" si="11"/>
         <v>1.4634577685156851</v>
       </c>
       <c r="S25" s="1">
-        <f>$C25/G25</f>
+        <f t="shared" si="12"/>
         <v>2.1134063143053288</v>
       </c>
       <c r="T25" s="1">
-        <f>$C25/H25</f>
+        <f t="shared" si="13"/>
         <v>4.4135905338775085</v>
       </c>
       <c r="U25" s="1"/>
@@ -27136,16 +27136,16 @@
       <c r="D26" s="25">
         <v>168.74468636363633</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="61">
         <v>23.825303636363632</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="61">
         <v>12.829434545454545</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="61">
         <v>8.8821927272727255</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="61">
         <v>4.2777472727272725</v>
       </c>
       <c r="I26" s="40"/>
@@ -27160,23 +27160,23 @@
         <v>1</v>
       </c>
       <c r="P26" s="1">
-        <f>$C26/D26</f>
+        <f t="shared" si="9"/>
         <v>0.11158499509385228</v>
       </c>
       <c r="Q26" s="1">
-        <f>$C26/E26</f>
+        <f t="shared" si="10"/>
         <v>0.79030996991205016</v>
       </c>
       <c r="R26" s="1">
-        <f>$C26/F26</f>
+        <f t="shared" si="11"/>
         <v>1.4676699065175269</v>
       </c>
       <c r="S26" s="1">
-        <f>$C26/G26</f>
+        <f t="shared" si="12"/>
         <v>2.1199016479550714</v>
       </c>
       <c r="T26" s="1">
-        <f>$C26/H26</f>
+        <f t="shared" si="13"/>
         <v>4.4017034666929629</v>
       </c>
       <c r="U26" s="1"/>
@@ -27203,16 +27203,16 @@
       <c r="D27" s="25">
         <v>184.78982909090911</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="61">
         <v>26.086736363636362</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="61">
         <v>14.033261818181819</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="61">
         <v>9.7094436363636358</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="61">
         <v>4.6637690909090912</v>
       </c>
       <c r="I27" s="40"/>
@@ -27227,23 +27227,23 @@
         <v>1</v>
       </c>
       <c r="P27" s="1">
-        <f>$C27/D27</f>
+        <f t="shared" si="9"/>
         <v>0.11240026089196604</v>
       </c>
       <c r="Q27" s="1">
-        <f>$C27/E27</f>
+        <f t="shared" si="10"/>
         <v>0.7962063444989983</v>
       </c>
       <c r="R27" s="1">
-        <f>$C27/F27</f>
+        <f t="shared" si="11"/>
         <v>1.4800853336242439</v>
       </c>
       <c r="S27" s="1">
-        <f>$C27/G27</f>
+        <f t="shared" si="12"/>
         <v>2.1391982669543466</v>
       </c>
       <c r="T27" s="1">
-        <f>$C27/H27</f>
+        <f t="shared" si="13"/>
         <v>4.4535706196275893</v>
       </c>
       <c r="U27" s="1"/>
@@ -27270,16 +27270,16 @@
       <c r="D28" s="25">
         <v>201.60867636363636</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="61">
         <v>28.410879090909088</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="61">
         <v>15.277859090909089</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="61">
         <v>10.568677272727273</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="61">
         <v>5.0847572727272725</v>
       </c>
       <c r="I28" s="40"/>
@@ -27294,23 +27294,23 @@
         <v>1</v>
       </c>
       <c r="P28" s="1">
-        <f>$C28/D28</f>
+        <f t="shared" si="9"/>
         <v>0.11204825311811076</v>
       </c>
       <c r="Q28" s="1">
-        <f>$C28/E28</f>
+        <f t="shared" si="10"/>
         <v>0.79511443231717227</v>
       </c>
       <c r="R28" s="1">
-        <f>$C28/F28</f>
+        <f t="shared" si="11"/>
         <v>1.4786037667700349</v>
       </c>
       <c r="S28" s="1">
-        <f>$C28/G28</f>
+        <f t="shared" si="12"/>
         <v>2.1374387179267726</v>
       </c>
       <c r="T28" s="1">
-        <f>$C28/H28</f>
+        <f t="shared" si="13"/>
         <v>4.4426702767433435</v>
       </c>
       <c r="U28" s="1"/>
@@ -27337,16 +27337,16 @@
       <c r="D29" s="25">
         <v>212.22224363636369</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="61">
         <v>29.43644545454546</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="61">
         <v>15.823535454545453</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="61">
         <v>10.93791</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="61">
         <v>5.302160909090909</v>
       </c>
       <c r="I29" s="40"/>
@@ -27361,23 +27361,23 @@
         <v>1</v>
       </c>
       <c r="P29" s="1">
-        <f>$C29/D29</f>
+        <f t="shared" si="9"/>
         <v>0.11618716105108129</v>
       </c>
       <c r="Q29" s="1">
-        <f>$C29/E29</f>
+        <f t="shared" si="10"/>
         <v>0.83765208805781555</v>
       </c>
       <c r="R29" s="1">
-        <f>$C29/F29</f>
+        <f t="shared" si="11"/>
         <v>1.558280074059992</v>
       </c>
       <c r="S29" s="1">
-        <f>$C29/G29</f>
+        <f t="shared" si="12"/>
         <v>2.2543154953734303</v>
       </c>
       <c r="T29" s="1">
-        <f>$C29/H29</f>
+        <f t="shared" si="13"/>
         <v>4.650462410094546</v>
       </c>
       <c r="U29" s="1"/>
@@ -27404,16 +27404,16 @@
       <c r="D30" s="25">
         <v>227.45589909090913</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="61">
         <v>31.841395454545456</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="61">
         <v>17.138342727272725</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="61">
         <v>11.86391818181818</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="61">
         <v>5.8506363636363634</v>
       </c>
       <c r="I30" s="40"/>
@@ -27428,23 +27428,23 @@
         <v>1</v>
       </c>
       <c r="P30" s="1">
-        <f>$C30/D30</f>
+        <f t="shared" si="9"/>
         <v>0.1163282645372266</v>
       </c>
       <c r="Q30" s="1">
-        <f>$C30/E30</f>
+        <f t="shared" si="10"/>
         <v>0.8309795981703062</v>
       </c>
       <c r="R30" s="1">
-        <f>$C30/F30</f>
+        <f t="shared" si="11"/>
         <v>1.5438803168461659</v>
       </c>
       <c r="S30" s="1">
-        <f>$C30/G30</f>
+        <f t="shared" si="12"/>
         <v>2.2302539173398945</v>
       </c>
       <c r="T30" s="1">
-        <f>$C30/H30</f>
+        <f t="shared" si="13"/>
         <v>4.5225080410833316</v>
       </c>
       <c r="U30" s="1"/>
@@ -27471,16 +27471,16 @@
       <c r="D31" s="25">
         <v>245.43795909090906</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="61">
         <v>34.388435454545451</v>
       </c>
-      <c r="F31" s="70">
+      <c r="F31" s="61">
         <v>18.495544545454546</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="61">
         <v>12.781636363636363</v>
       </c>
-      <c r="H31" s="70">
+      <c r="H31" s="61">
         <v>6.3282309090909088</v>
       </c>
       <c r="I31" s="40"/>
@@ -27495,23 +27495,23 @@
         <v>1</v>
       </c>
       <c r="P31" s="1">
-        <f>$C31/D31</f>
+        <f t="shared" si="9"/>
         <v>0.11684592353286988</v>
       </c>
       <c r="Q31" s="1">
-        <f>$C31/E31</f>
+        <f t="shared" si="10"/>
         <v>0.83395550338156776</v>
       </c>
       <c r="R31" s="1">
-        <f>$C31/F31</f>
+        <f t="shared" si="11"/>
         <v>1.5505585644975237</v>
       </c>
       <c r="S31" s="1">
-        <f>$C31/G31</f>
+        <f t="shared" si="12"/>
         <v>2.243720927751462</v>
       </c>
       <c r="T31" s="1">
-        <f>$C31/H31</f>
+        <f t="shared" si="13"/>
         <v>4.5318234135232975</v>
       </c>
       <c r="U31" s="1"/>
@@ -27538,16 +27538,16 @@
       <c r="D32" s="25">
         <v>261.38272818181815</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="61">
         <v>36.899030909090918</v>
       </c>
-      <c r="F32" s="70">
+      <c r="F32" s="61">
         <v>19.839728181818181</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="61">
         <v>13.706767272727273</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="61">
         <v>6.8437381818181819</v>
       </c>
       <c r="I32" s="40"/>
@@ -27562,23 +27562,23 @@
         <v>1</v>
       </c>
       <c r="P32" s="1">
-        <f>$C32/D32</f>
+        <f t="shared" si="9"/>
         <v>0.11775966178322167</v>
       </c>
       <c r="Q32" s="1">
-        <f>$C32/E32</f>
+        <f t="shared" si="10"/>
         <v>0.83417750841481397</v>
       </c>
       <c r="R32" s="1">
-        <f>$C32/F32</f>
+        <f t="shared" si="11"/>
         <v>1.551449767082739</v>
       </c>
       <c r="S32" s="1">
-        <f>$C32/G32</f>
+        <f t="shared" si="12"/>
         <v>2.2456310123475394</v>
       </c>
       <c r="T32" s="1">
-        <f>$C32/H32</f>
+        <f t="shared" si="13"/>
         <v>4.4975919371727375</v>
       </c>
       <c r="U32" s="1"/>
@@ -27605,16 +27605,16 @@
       <c r="D33" s="25">
         <v>282.84560636363636</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="61">
         <v>39.571374545454553</v>
       </c>
-      <c r="F33" s="70">
+      <c r="F33" s="61">
         <v>21.261566363636366</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="61">
         <v>14.683071818181821</v>
       </c>
-      <c r="H33" s="70">
+      <c r="H33" s="61">
         <v>7.2831200000000003</v>
       </c>
       <c r="I33" s="40"/>
@@ -27629,23 +27629,23 @@
         <v>1</v>
       </c>
       <c r="P33" s="1">
-        <f>$C33/D33</f>
+        <f t="shared" si="9"/>
         <v>0.11727178215626603</v>
       </c>
       <c r="Q33" s="1">
-        <f>$C33/E33</f>
+        <f t="shared" si="10"/>
         <v>0.83822734778222285</v>
       </c>
       <c r="R33" s="1">
-        <f>$C33/F33</f>
+        <f t="shared" si="11"/>
         <v>1.560083004517655</v>
       </c>
       <c r="S33" s="1">
-        <f>$C33/G33</f>
+        <f t="shared" si="12"/>
         <v>2.2590510176664584</v>
       </c>
       <c r="T33" s="1">
-        <f>$C33/H33</f>
+        <f t="shared" si="13"/>
         <v>4.5543404932684526</v>
       </c>
       <c r="U33" s="1"/>
@@ -27672,16 +27672,16 @@
       <c r="D34" s="25">
         <v>300.55774818181811</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="61">
         <v>42.485898181818179</v>
       </c>
-      <c r="F34" s="70">
+      <c r="F34" s="61">
         <v>22.81953636363636</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="61">
         <v>15.761262727272729</v>
       </c>
-      <c r="H34" s="70">
+      <c r="H34" s="61">
         <v>7.8775263636363642</v>
       </c>
       <c r="I34" s="40"/>
@@ -27696,23 +27696,23 @@
         <v>1</v>
       </c>
       <c r="P34" s="1">
-        <f>$C34/D34</f>
+        <f t="shared" si="9"/>
         <v>0.11907428844040359</v>
       </c>
       <c r="Q34" s="1">
-        <f>$C34/E34</f>
+        <f t="shared" si="10"/>
         <v>0.84236656235540663</v>
       </c>
       <c r="R34" s="1">
-        <f>$C34/F34</f>
+        <f t="shared" si="11"/>
         <v>1.5683359832424293</v>
       </c>
       <c r="S34" s="1">
-        <f>$C34/G34</f>
+        <f t="shared" si="12"/>
         <v>2.2706746673331257</v>
       </c>
       <c r="T34" s="1">
-        <f>$C34/H34</f>
+        <f t="shared" si="13"/>
         <v>4.5431393495812422</v>
       </c>
       <c r="U34" s="1"/>
@@ -27739,16 +27739,16 @@
       <c r="D35" s="25">
         <v>318.66701</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="61">
         <v>45.179454545454547</v>
       </c>
-      <c r="F35" s="70">
+      <c r="F35" s="61">
         <v>24.263283636363635</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="61">
         <v>16.757190909090909</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H35" s="61">
         <v>8.3917090909090906</v>
       </c>
       <c r="I35" s="40"/>
@@ -27763,23 +27763,23 @@
         <v>1</v>
       </c>
       <c r="P35" s="1">
-        <f>$C35/D35</f>
+        <f t="shared" si="9"/>
         <v>0.11929168632799485</v>
       </c>
       <c r="Q35" s="1">
-        <f>$C35/E35</f>
+        <f t="shared" si="10"/>
         <v>0.84140734726565169</v>
       </c>
       <c r="R35" s="1">
-        <f>$C35/F35</f>
+        <f t="shared" si="11"/>
         <v>1.5667428024056702</v>
       </c>
       <c r="S35" s="1">
-        <f>$C35/G35</f>
+        <f t="shared" si="12"/>
         <v>2.268538038757852</v>
       </c>
       <c r="T35" s="1">
-        <f>$C35/H35</f>
+        <f t="shared" si="13"/>
         <v>4.5299860360009019</v>
       </c>
       <c r="U35" s="1"/>
@@ -27806,16 +27806,16 @@
       <c r="D36" s="25">
         <v>340.15417090909096</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="61">
         <v>48.323029090909088</v>
       </c>
-      <c r="F36" s="70">
+      <c r="F36" s="61">
         <v>25.950647272727277</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="61">
         <v>17.922192727272726</v>
       </c>
-      <c r="H36" s="70">
+      <c r="H36" s="61">
         <v>9.0211818181818177</v>
       </c>
       <c r="I36" s="40"/>
@@ -27830,23 +27830,23 @@
         <v>1</v>
       </c>
       <c r="P36" s="1">
-        <f>$C36/D36</f>
+        <f t="shared" si="9"/>
         <v>0.1200079850779677</v>
       </c>
       <c r="Q36" s="1">
-        <f>$C36/E36</f>
+        <f t="shared" si="10"/>
         <v>0.84475699132748028</v>
       </c>
       <c r="R36" s="1">
-        <f>$C36/F36</f>
+        <f t="shared" si="11"/>
         <v>1.5730326969365249</v>
       </c>
       <c r="S36" s="1">
-        <f>$C36/G36</f>
+        <f t="shared" si="12"/>
         <v>2.2776909772065905</v>
       </c>
       <c r="T36" s="1">
-        <f>$C36/H36</f>
+        <f t="shared" si="13"/>
         <v>4.5250408970134259</v>
       </c>
       <c r="U36" s="1"/>
@@ -27864,7 +27864,7 @@
       <c r="AQ36" s="59"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="70"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="16">
         <v>65</v>
       </c>
@@ -27874,16 +27874,16 @@
       <c r="D37" s="25">
         <v>348.32414181818183</v>
       </c>
-      <c r="E37" s="70">
+      <c r="E37" s="61">
         <v>48.545354545454551</v>
       </c>
-      <c r="F37" s="70">
+      <c r="F37" s="61">
         <v>26.064848181818181</v>
       </c>
-      <c r="G37" s="70">
+      <c r="G37" s="61">
         <v>17.993061818181818</v>
       </c>
-      <c r="H37" s="70">
+      <c r="H37" s="61">
         <v>9.1750509090909116</v>
       </c>
       <c r="I37" s="40"/>
@@ -27898,23 +27898,23 @@
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <f>$C37/D37</f>
+        <f t="shared" si="9"/>
         <v>0.12450397908194302</v>
       </c>
       <c r="Q37" s="1">
-        <f>$C37/E37</f>
+        <f t="shared" si="10"/>
         <v>0.89334483335702242</v>
       </c>
       <c r="R37" s="1">
-        <f>$C37/F37</f>
+        <f t="shared" si="11"/>
         <v>1.6638401790852673</v>
       </c>
       <c r="S37" s="1">
-        <f>$C37/G37</f>
+        <f t="shared" si="12"/>
         <v>2.4102480225374414</v>
       </c>
       <c r="T37" s="1">
-        <f>$C37/H37</f>
+        <f t="shared" si="13"/>
         <v>4.7267031100281551</v>
       </c>
       <c r="U37" s="1"/>
@@ -27932,7 +27932,7 @@
       <c r="AQ37" s="59"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="70"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="16">
         <v>67</v>
       </c>
@@ -27942,16 +27942,16 @@
       <c r="D38" s="25">
         <v>369.42765727272723</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="61">
         <v>51.963545454545446</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="61">
         <v>27.938200909090913</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="61">
         <v>19.182341818181815</v>
       </c>
-      <c r="H38" s="70">
+      <c r="H38" s="61">
         <v>9.6848481818181806</v>
       </c>
       <c r="I38" s="40"/>
@@ -27966,23 +27966,23 @@
         <v>1</v>
       </c>
       <c r="P38" s="1">
-        <f>$C38/D38</f>
+        <f t="shared" si="9"/>
         <v>0.12609327090060721</v>
       </c>
       <c r="Q38" s="1">
-        <f>$C38/E38</f>
+        <f t="shared" si="10"/>
         <v>0.89644271304416812</v>
       </c>
       <c r="R38" s="1">
-        <f>$C38/F38</f>
+        <f t="shared" si="11"/>
         <v>1.6673350520401289</v>
       </c>
       <c r="S38" s="1">
-        <f>$C38/G38</f>
+        <f t="shared" si="12"/>
         <v>2.4283970178507612</v>
       </c>
       <c r="T38" s="1">
-        <f>$C38/H38</f>
+        <f t="shared" si="13"/>
         <v>4.8098164051882488</v>
       </c>
       <c r="U38" s="1"/>
@@ -28000,7 +28000,7 @@
       <c r="AQ38" s="59"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="70"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="16">
         <v>69</v>
       </c>
@@ -28010,16 +28010,16 @@
       <c r="D39" s="25">
         <v>385.09373636363637</v>
       </c>
-      <c r="E39" s="70">
+      <c r="E39" s="61">
         <v>54.507452727272728</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="61">
         <v>29.290150909090915</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="61">
         <v>20.121556363636362</v>
       </c>
-      <c r="H39" s="70">
+      <c r="H39" s="61">
         <v>10.285313636363638</v>
       </c>
       <c r="I39" s="40"/>
@@ -28034,23 +28034,23 @@
         <v>1</v>
       </c>
       <c r="P39" s="1">
-        <f>$C39/D39</f>
+        <f t="shared" si="9"/>
         <v>0.12901583945720638</v>
       </c>
       <c r="Q39" s="1">
-        <f>$C39/E39</f>
+        <f t="shared" si="10"/>
         <v>0.91149355144618138</v>
       </c>
       <c r="R39" s="1">
-        <f>$C39/F39</f>
+        <f t="shared" si="11"/>
         <v>1.6962422563431134</v>
       </c>
       <c r="S39" s="1">
-        <f>$C39/G39</f>
+        <f t="shared" si="12"/>
         <v>2.46915252323394</v>
       </c>
       <c r="T39" s="1">
-        <f>$C39/H39</f>
+        <f t="shared" si="13"/>
         <v>4.8304984585994708</v>
       </c>
       <c r="U39" s="1"/>
@@ -28068,7 +28068,7 @@
       <c r="AQ39" s="59"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="70"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="16">
         <v>71</v>
       </c>
@@ -28078,16 +28078,16 @@
       <c r="D40" s="25">
         <v>402.72595000000001</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="61">
         <v>57.679819090909092</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="61">
         <v>30.980870000000003</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="61">
         <v>21.274375454545453</v>
       </c>
-      <c r="H40" s="70">
+      <c r="H40" s="61">
         <v>10.870030909090907</v>
       </c>
       <c r="I40" s="40"/>
@@ -28102,23 +28102,23 @@
         <v>1</v>
       </c>
       <c r="P40" s="1">
-        <f>$C40/D40</f>
+        <f t="shared" si="9"/>
         <v>0.12999452026040703</v>
       </c>
       <c r="Q40" s="1">
-        <f>$C40/E40</f>
+        <f t="shared" si="10"/>
         <v>0.90763403026896605</v>
       </c>
       <c r="R40" s="1">
-        <f>$C40/F40</f>
+        <f t="shared" si="11"/>
         <v>1.6898223538159731</v>
       </c>
       <c r="S40" s="1">
-        <f>$C40/G40</f>
+        <f t="shared" si="12"/>
         <v>2.4608086276620251</v>
       </c>
       <c r="T40" s="1">
-        <f>$C40/H40</f>
+        <f t="shared" si="13"/>
         <v>4.8161929901122091</v>
       </c>
       <c r="U40" s="1"/>
@@ -28136,7 +28136,7 @@
       <c r="AQ40" s="59"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="70"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="16">
         <v>73</v>
       </c>
@@ -28146,16 +28146,16 @@
       <c r="D41" s="25">
         <v>432.83869249999998</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="61">
         <v>60.903750000000002</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="61">
         <v>32.813585000000003</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="61">
         <v>22.520334999999999</v>
       </c>
-      <c r="H41" s="70">
+      <c r="H41" s="61">
         <v>11.734527499999999</v>
       </c>
       <c r="N41" s="16">
@@ -28166,23 +28166,23 @@
         <v>1</v>
       </c>
       <c r="P41" s="1">
-        <f>$C41/D41</f>
+        <f t="shared" si="9"/>
         <v>0.12839217233334563</v>
       </c>
       <c r="Q41" s="1">
-        <f>$C41/E41</f>
+        <f t="shared" si="10"/>
         <v>0.91247419083389769</v>
       </c>
       <c r="R41" s="1">
-        <f>$C41/F41</f>
+        <f t="shared" si="11"/>
         <v>1.693600379233174</v>
       </c>
       <c r="S41" s="1">
-        <f>$C41/G41</f>
+        <f t="shared" si="12"/>
         <v>2.4676853164040411</v>
       </c>
       <c r="T41" s="1">
-        <f>$C41/H41</f>
+        <f t="shared" si="13"/>
         <v>4.7358617549790569</v>
       </c>
       <c r="U41" s="1"/>
@@ -28194,7 +28194,7 @@
       <c r="AK41" s="1"/>
     </row>
     <row r="42" spans="1:43">
-      <c r="A42" s="70"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="16">
         <v>75</v>
       </c>
@@ -28204,16 +28204,16 @@
       <c r="D42" s="25">
         <v>449.417055</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="61">
         <v>67.444805000000002</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="61">
         <v>36.074277499999994</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="61">
         <v>24.384304999999998</v>
       </c>
-      <c r="H42" s="70">
+      <c r="H42" s="61">
         <v>12.556167499999999</v>
       </c>
       <c r="N42" s="16">
@@ -28224,23 +28224,23 @@
         <v>1</v>
       </c>
       <c r="P42" s="1">
-        <f>$C42/D42</f>
+        <f t="shared" si="9"/>
         <v>0.13190921292472979</v>
       </c>
       <c r="Q42" s="1">
-        <f>$C42/E42</f>
+        <f t="shared" si="10"/>
         <v>0.8789742960929311</v>
       </c>
       <c r="R42" s="1">
-        <f>$C42/F42</f>
+        <f t="shared" si="11"/>
         <v>1.6433385256295159</v>
       </c>
       <c r="S42" s="1">
-        <f>$C42/G42</f>
+        <f t="shared" si="12"/>
         <v>2.4311642263332915</v>
       </c>
       <c r="T42" s="1">
-        <f>$C42/H42</f>
+        <f t="shared" si="13"/>
         <v>4.7213650184262042</v>
       </c>
       <c r="U42" s="1"/>
@@ -28252,7 +28252,7 @@
       <c r="AK42" s="1"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="70"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="16">
         <v>77</v>
       </c>
@@ -28262,16 +28262,16 @@
       <c r="D43" s="25">
         <v>468.2956375</v>
       </c>
-      <c r="E43" s="70">
+      <c r="E43" s="61">
         <v>70.682112500000002</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="61">
         <v>38.109167499999998</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="61">
         <v>25.467442499999997</v>
       </c>
-      <c r="H43" s="70">
+      <c r="H43" s="61">
         <v>13.333475</v>
       </c>
       <c r="N43" s="16">
@@ -28282,23 +28282,23 @@
         <v>1</v>
       </c>
       <c r="P43" s="1">
-        <f>$C43/D43</f>
+        <f t="shared" si="9"/>
         <v>0.1341032138058301</v>
       </c>
       <c r="Q43" s="1">
-        <f>$C43/E43</f>
+        <f t="shared" si="10"/>
         <v>0.88848433894784906</v>
       </c>
       <c r="R43" s="1">
-        <f>$C43/F43</f>
+        <f t="shared" si="11"/>
         <v>1.6478961394262943</v>
       </c>
       <c r="S43" s="1">
-        <f>$C43/G43</f>
+        <f t="shared" si="12"/>
         <v>2.4658915004912649</v>
       </c>
       <c r="T43" s="1">
-        <f>$C43/H43</f>
+        <f t="shared" si="13"/>
         <v>4.7099462068215523</v>
       </c>
       <c r="U43" s="1"/>
@@ -28310,7 +28310,7 @@
       <c r="AK43" s="1"/>
     </row>
     <row r="44" spans="1:43">
-      <c r="A44" s="70"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="16">
         <v>79</v>
       </c>
@@ -28320,16 +28320,16 @@
       <c r="D44" s="25">
         <v>487.21597250000002</v>
       </c>
-      <c r="E44" s="70">
+      <c r="E44" s="61">
         <v>74.24047250000001</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="61">
         <v>39.598722500000001</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="61">
         <v>26.742555000000003</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="61">
         <v>13.4895575</v>
       </c>
       <c r="N44" s="16">
@@ -28340,23 +28340,23 @@
         <v>1</v>
       </c>
       <c r="P44" s="1">
-        <f>$C44/D44</f>
+        <f t="shared" si="9"/>
         <v>0.13757425614777027</v>
       </c>
       <c r="Q44" s="1">
-        <f>$C44/E44</f>
+        <f t="shared" si="10"/>
         <v>0.90285490841939331</v>
       </c>
       <c r="R44" s="1">
-        <f>$C44/F44</f>
+        <f t="shared" si="11"/>
         <v>1.6926903386845369</v>
       </c>
       <c r="S44" s="1">
-        <f>$C44/G44</f>
+        <f t="shared" si="12"/>
         <v>2.5064312291776156</v>
       </c>
       <c r="T44" s="1">
-        <f>$C44/H44</f>
+        <f t="shared" si="13"/>
         <v>4.9689083574461206</v>
       </c>
       <c r="U44" s="1"/>
@@ -28368,7 +28368,7 @@
       <c r="AK44" s="1"/>
     </row>
     <row r="45" spans="1:43">
-      <c r="A45" s="70"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="16">
         <v>81</v>
       </c>
@@ -28378,16 +28378,16 @@
       <c r="D45" s="25">
         <v>515.2528575</v>
       </c>
-      <c r="E45" s="70">
+      <c r="E45" s="61">
         <v>73.505639999999985</v>
       </c>
-      <c r="F45" s="70">
+      <c r="F45" s="61">
         <v>39.6376925</v>
       </c>
-      <c r="G45" s="70">
+      <c r="G45" s="61">
         <v>26.823915</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="61">
         <v>13.5280825</v>
       </c>
       <c r="N45" s="16">
@@ -28398,23 +28398,23 @@
         <v>1</v>
       </c>
       <c r="P45" s="1">
-        <f>$C45/D45</f>
+        <f t="shared" si="9"/>
         <v>0.13796342701505543</v>
       </c>
       <c r="Q45" s="1">
-        <f>$C45/E45</f>
+        <f t="shared" si="10"/>
         <v>0.96708293404424495</v>
       </c>
       <c r="R45" s="1">
-        <f>$C45/F45</f>
+        <f t="shared" si="11"/>
         <v>1.7933952638640607</v>
       </c>
       <c r="S45" s="1">
-        <f>$C45/G45</f>
+        <f t="shared" si="12"/>
         <v>2.6500997337636956</v>
       </c>
       <c r="T45" s="1">
-        <f>$C45/H45</f>
+        <f t="shared" si="13"/>
         <v>5.2547025788762003</v>
       </c>
       <c r="U45" s="1"/>
@@ -28426,7 +28426,7 @@
       <c r="AK45" s="1"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="70"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="16">
         <v>83</v>
       </c>
@@ -28436,16 +28436,16 @@
       <c r="D46" s="25">
         <v>534.64672250000001</v>
       </c>
-      <c r="E46" s="70">
+      <c r="E46" s="61">
         <v>77.581942499999997</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="61">
         <v>41.924997499999996</v>
       </c>
-      <c r="G46" s="70">
+      <c r="G46" s="61">
         <v>28.392555000000002</v>
       </c>
-      <c r="H46" s="70">
+      <c r="H46" s="61">
         <v>14.581777500000001</v>
       </c>
       <c r="N46" s="16">
@@ -28456,23 +28456,23 @@
         <v>1</v>
       </c>
       <c r="P46" s="1">
-        <f>$C46/D46</f>
+        <f t="shared" si="9"/>
         <v>0.13880174866310904</v>
       </c>
       <c r="Q46" s="1">
-        <f>$C46/E46</f>
+        <f t="shared" si="10"/>
         <v>0.95653572994772607</v>
       </c>
       <c r="R46" s="1">
-        <f>$C46/F46</f>
+        <f t="shared" si="11"/>
         <v>1.7700633136591126</v>
       </c>
       <c r="S46" s="1">
-        <f>$C46/G46</f>
+        <f t="shared" si="12"/>
         <v>2.6137098263963918</v>
       </c>
       <c r="T46" s="1">
-        <f>$C46/H46</f>
+        <f t="shared" si="13"/>
         <v>5.0892218044062183</v>
       </c>
       <c r="U46" s="1"/>
@@ -28484,7 +28484,7 @@
       <c r="AK46" s="1"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="70"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="16">
         <v>85</v>
       </c>
@@ -28494,16 +28494,16 @@
       <c r="D47" s="25">
         <v>550.34039000000007</v>
       </c>
-      <c r="E47" s="70">
+      <c r="E47" s="61">
         <v>80.492332499999989</v>
       </c>
-      <c r="F47" s="70">
+      <c r="F47" s="61">
         <v>43.438997499999999</v>
       </c>
-      <c r="G47" s="70">
+      <c r="G47" s="61">
         <v>29.387834999999999</v>
       </c>
-      <c r="H47" s="70">
+      <c r="H47" s="61">
         <v>14.888860000000001</v>
       </c>
       <c r="N47" s="16">
@@ -28514,23 +28514,23 @@
         <v>1</v>
       </c>
       <c r="P47" s="1">
-        <f>$C47/D47</f>
+        <f t="shared" si="9"/>
         <v>0.14222515995963877</v>
       </c>
       <c r="Q47" s="1">
-        <f>$C47/E47</f>
+        <f t="shared" si="10"/>
         <v>0.97241870832852317</v>
       </c>
       <c r="R47" s="1">
-        <f>$C47/F47</f>
+        <f t="shared" si="11"/>
         <v>1.8018889593388983</v>
       </c>
       <c r="S47" s="1">
-        <f>$C47/G47</f>
+        <f t="shared" si="12"/>
         <v>2.6634234879840588</v>
       </c>
       <c r="T47" s="1">
-        <f>$C47/H47</f>
+        <f t="shared" si="13"/>
         <v>5.2571016182568711</v>
       </c>
       <c r="U47" s="1"/>
@@ -28542,7 +28542,7 @@
       <c r="AK47" s="1"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="70"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="16">
         <v>87</v>
       </c>
@@ -28552,16 +28552,16 @@
       <c r="D48" s="25">
         <v>571.97274999999991</v>
       </c>
-      <c r="E48" s="70">
+      <c r="E48" s="61">
         <v>84.306362499999992</v>
       </c>
-      <c r="F48" s="70">
+      <c r="F48" s="61">
         <v>45.479387500000001</v>
       </c>
-      <c r="G48" s="70">
+      <c r="G48" s="61">
         <v>30.772889999999997</v>
       </c>
-      <c r="H48" s="70">
+      <c r="H48" s="61">
         <v>15.619530000000001</v>
       </c>
       <c r="N48" s="16">
@@ -28572,23 +28572,23 @@
         <v>1</v>
       </c>
       <c r="P48" s="1">
-        <f>$C48/D48</f>
+        <f t="shared" si="9"/>
         <v>0.14385702815387624</v>
       </c>
       <c r="Q48" s="1">
-        <f>$C48/E48</f>
+        <f t="shared" si="10"/>
         <v>0.97599158070661651</v>
       </c>
       <c r="R48" s="1">
-        <f>$C48/F48</f>
+        <f t="shared" si="11"/>
         <v>1.8092218150475312</v>
       </c>
       <c r="S48" s="1">
-        <f>$C48/G48</f>
+        <f t="shared" si="12"/>
         <v>2.6738567615846289</v>
       </c>
       <c r="T48" s="1">
-        <f>$C48/H48</f>
+        <f t="shared" si="13"/>
         <v>5.2679113904195578</v>
       </c>
       <c r="U48" s="1"/>
@@ -28600,7 +28600,7 @@
       <c r="AK48" s="1"/>
     </row>
     <row r="49" spans="1:37">
-      <c r="A49" s="70"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="17">
         <v>89</v>
       </c>
@@ -28610,16 +28610,16 @@
       <c r="D49" s="26">
         <v>586.43686000000002</v>
       </c>
-      <c r="E49" s="70">
+      <c r="E49" s="61">
         <v>89.329115000000002</v>
       </c>
-      <c r="F49" s="70">
+      <c r="F49" s="61">
         <v>47.604610000000001</v>
       </c>
-      <c r="G49" s="70">
+      <c r="G49" s="61">
         <v>31.835057499999998</v>
       </c>
-      <c r="H49" s="70">
+      <c r="H49" s="61">
         <v>16.1010575</v>
       </c>
       <c r="N49" s="17">
@@ -28630,23 +28630,23 @@
         <v>1</v>
       </c>
       <c r="P49" s="1">
-        <f>$C49/D49</f>
+        <f t="shared" si="9"/>
         <v>0.14672120882715317</v>
       </c>
       <c r="Q49" s="1">
-        <f>$C49/E49</f>
+        <f t="shared" si="10"/>
         <v>0.96321031502439025</v>
       </c>
       <c r="R49" s="1">
-        <f>$C49/F49</f>
+        <f t="shared" si="11"/>
         <v>1.8074452243175605</v>
       </c>
       <c r="S49" s="1">
-        <f>$C49/G49</f>
+        <f t="shared" si="12"/>
         <v>2.7027664391685171</v>
       </c>
       <c r="T49" s="1">
-        <f>$C49/H49</f>
+        <f t="shared" si="13"/>
         <v>5.3439176277707219</v>
       </c>
       <c r="U49" s="1"/>
@@ -28963,47 +28963,47 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:42">
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="61"/>
-      <c r="P4" s="60" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="P4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="60" t="s">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="61"/>
-      <c r="AJ4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AP4" s="69"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="75"/>
+      <c r="AJ4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AP4" s="60"/>
     </row>
     <row r="5" spans="1:42">
       <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="70" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="58" t="s">
@@ -29033,42 +29033,42 @@
       <c r="L5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="78" t="s">
+      <c r="P5" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="78" t="s">
+      <c r="Q5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="78" t="s">
+      <c r="S5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="78" t="s">
+      <c r="U5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="78" t="s">
+      <c r="V5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="78" t="s">
+      <c r="W5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="78" t="s">
+      <c r="X5" s="69" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="70"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -29109,44 +29109,44 @@
         <v>1</v>
       </c>
       <c r="P6" s="24">
-        <f>$C6/D6</f>
+        <f t="shared" ref="P6:P19" si="0">$C6/D6</f>
         <v>1.5212528909081964</v>
       </c>
       <c r="Q6" s="24">
-        <f>$C6/E6</f>
+        <f t="shared" ref="Q6:Q19" si="1">$C6/E6</f>
         <v>0.77216773581214115</v>
       </c>
       <c r="R6" s="24">
-        <f>$C6/F6</f>
+        <f t="shared" ref="R6:R19" si="2">$C6/F6</f>
         <v>0.89722791242118693</v>
       </c>
       <c r="S6" s="24">
-        <f>$C6/G6</f>
+        <f t="shared" ref="S6:S19" si="3">$C6/G6</f>
         <v>0.92998716515339142</v>
       </c>
       <c r="T6" s="24">
-        <f>$C6/H6</f>
+        <f t="shared" ref="T6:T19" si="4">$C6/H6</f>
         <v>1.2033633916117938</v>
       </c>
       <c r="U6" s="24">
-        <f>$C6/I6</f>
+        <f t="shared" ref="U6:U19" si="5">$C6/I6</f>
         <v>0.9791413293638227</v>
       </c>
       <c r="V6" s="24">
-        <f>$C6/J6</f>
+        <f t="shared" ref="V6:V19" si="6">$C6/J6</f>
         <v>0.96311833545608738</v>
       </c>
       <c r="W6" s="24">
-        <f>$C6/K6</f>
+        <f t="shared" ref="W6:W19" si="7">$C6/K6</f>
         <v>1.0251518139999864</v>
       </c>
       <c r="X6" s="24">
-        <f>$C6/L6</f>
+        <f t="shared" ref="X6:X19" si="8">$C6/L6</f>
         <v>1.9240498385495706</v>
       </c>
     </row>
     <row r="7" spans="1:42">
-      <c r="A7" s="70"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -29187,44 +29187,44 @@
         <v>1</v>
       </c>
       <c r="P7" s="25">
-        <f>$C7/D7</f>
+        <f t="shared" si="0"/>
         <v>1.332372425839075</v>
       </c>
       <c r="Q7" s="25">
-        <f>$C7/E7</f>
+        <f t="shared" si="1"/>
         <v>0.88599679787466157</v>
       </c>
       <c r="R7" s="25">
-        <f>$C7/F7</f>
+        <f t="shared" si="2"/>
         <v>1.2916457281045528</v>
       </c>
       <c r="S7" s="25">
-        <f>$C7/G7</f>
+        <f t="shared" si="3"/>
         <v>1.4935950577129031</v>
       </c>
       <c r="T7" s="25">
-        <f>$C7/H7</f>
+        <f t="shared" si="4"/>
         <v>2.2361190440199965</v>
       </c>
       <c r="U7" s="25">
-        <f>$C7/I7</f>
+        <f t="shared" si="5"/>
         <v>0.99934602216933988</v>
       </c>
       <c r="V7" s="25">
-        <f>$C7/J7</f>
+        <f t="shared" si="6"/>
         <v>1.1972181507753061</v>
       </c>
       <c r="W7" s="25">
-        <f>$C7/K7</f>
+        <f t="shared" si="7"/>
         <v>1.4340401020641331</v>
       </c>
       <c r="X7" s="25">
-        <f>$C7/L7</f>
+        <f t="shared" si="8"/>
         <v>3.1782292915140364</v>
       </c>
     </row>
     <row r="8" spans="1:42">
-      <c r="A8" s="70"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="16">
         <v>7</v>
       </c>
@@ -29265,44 +29265,44 @@
         <v>1</v>
       </c>
       <c r="P8" s="25">
-        <f>$C8/D8</f>
+        <f t="shared" si="0"/>
         <v>1.0246382079671434</v>
       </c>
       <c r="Q8" s="25">
-        <f>$C8/E8</f>
+        <f t="shared" si="1"/>
         <v>0.72525163393710235</v>
       </c>
       <c r="R8" s="25">
-        <f>$C8/F8</f>
+        <f t="shared" si="2"/>
         <v>1.1823632614466202</v>
       </c>
       <c r="S8" s="25">
-        <f>$C8/G8</f>
+        <f t="shared" si="3"/>
         <v>1.4306859508896457</v>
       </c>
       <c r="T8" s="25">
-        <f>$C8/H8</f>
+        <f t="shared" si="4"/>
         <v>2.4385721365191793</v>
       </c>
       <c r="U8" s="25">
-        <f>$C8/I8</f>
+        <f t="shared" si="5"/>
         <v>0.78196639296214165</v>
       </c>
       <c r="V8" s="25">
-        <f>$C8/J8</f>
+        <f t="shared" si="6"/>
         <v>1.3060082952880949</v>
       </c>
       <c r="W8" s="25">
-        <f>$C8/K8</f>
+        <f t="shared" si="7"/>
         <v>1.294859702311886</v>
       </c>
       <c r="X8" s="25">
-        <f>$C8/L8</f>
+        <f t="shared" si="8"/>
         <v>3.2529572538129292</v>
       </c>
     </row>
     <row r="9" spans="1:42">
-      <c r="A9" s="70"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="16">
         <v>9</v>
       </c>
@@ -29343,44 +29343,44 @@
         <v>1</v>
       </c>
       <c r="P9" s="25">
-        <f>$C9/D9</f>
+        <f t="shared" si="0"/>
         <v>1.0006142800806004</v>
       </c>
       <c r="Q9" s="25">
-        <f>$C9/E9</f>
+        <f t="shared" si="1"/>
         <v>0.73665511720082943</v>
       </c>
       <c r="R9" s="25">
-        <f>$C9/F9</f>
+        <f t="shared" si="2"/>
         <v>1.3043387420021322</v>
       </c>
       <c r="S9" s="25">
-        <f>$C9/G9</f>
+        <f t="shared" si="3"/>
         <v>1.6302064594034171</v>
       </c>
       <c r="T9" s="25">
-        <f>$C9/H9</f>
+        <f t="shared" si="4"/>
         <v>2.7883949297725317</v>
       </c>
       <c r="U9" s="25">
-        <f>$C9/I9</f>
+        <f t="shared" si="5"/>
         <v>0.77528113167238832</v>
       </c>
       <c r="V9" s="25">
-        <f>$C9/J9</f>
+        <f t="shared" si="6"/>
         <v>1.412578184771083</v>
       </c>
       <c r="W9" s="25">
-        <f>$C9/K9</f>
+        <f t="shared" si="7"/>
         <v>1.8469706741780083</v>
       </c>
       <c r="X9" s="25">
-        <f>$C9/L9</f>
+        <f t="shared" si="8"/>
         <v>3.3780859677490538</v>
       </c>
     </row>
     <row r="10" spans="1:42">
-      <c r="A10" s="70"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="16">
         <v>11</v>
       </c>
@@ -29421,44 +29421,44 @@
         <v>1</v>
       </c>
       <c r="P10" s="25">
-        <f>$C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.99467441566889614</v>
       </c>
       <c r="Q10" s="25">
-        <f>$C10/E10</f>
+        <f t="shared" si="1"/>
         <v>0.74336928946853831</v>
       </c>
       <c r="R10" s="25">
-        <f>$C10/F10</f>
+        <f t="shared" si="2"/>
         <v>1.3614924776023751</v>
       </c>
       <c r="S10" s="25">
-        <f>$C10/G10</f>
+        <f t="shared" si="3"/>
         <v>1.7454767298217602</v>
       </c>
       <c r="T10" s="25">
-        <f>$C10/H10</f>
+        <f t="shared" si="4"/>
         <v>3.1992632008738724</v>
       </c>
       <c r="U10" s="25">
-        <f>$C10/I10</f>
+        <f t="shared" si="5"/>
         <v>0.77515922975338725</v>
       </c>
       <c r="V10" s="25">
-        <f>$C10/J10</f>
+        <f t="shared" si="6"/>
         <v>1.4566237200426435</v>
       </c>
       <c r="W10" s="25">
-        <f>$C10/K10</f>
+        <f t="shared" si="7"/>
         <v>1.9457156033274805</v>
       </c>
       <c r="X10" s="25">
-        <f>$C10/L10</f>
+        <f t="shared" si="8"/>
         <v>3.751122333633274</v>
       </c>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="70"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="16">
         <v>13</v>
       </c>
@@ -29499,44 +29499,44 @@
         <v>1</v>
       </c>
       <c r="P11" s="25">
-        <f>$C11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.98506579828059704</v>
       </c>
       <c r="Q11" s="25">
-        <f>$C11/E11</f>
+        <f t="shared" si="1"/>
         <v>0.74617192428623802</v>
       </c>
       <c r="R11" s="25">
-        <f>$C11/F11</f>
+        <f t="shared" si="2"/>
         <v>1.3922254391302642</v>
       </c>
       <c r="S11" s="25">
-        <f>$C11/G11</f>
+        <f t="shared" si="3"/>
         <v>1.8110808008866626</v>
       </c>
       <c r="T11" s="25">
-        <f>$C11/H11</f>
+        <f t="shared" si="4"/>
         <v>3.3864432137282905</v>
       </c>
       <c r="U11" s="25">
-        <f>$C11/I11</f>
+        <f t="shared" si="5"/>
         <v>0.76849238798482589</v>
       </c>
       <c r="V11" s="25">
-        <f>$C11/J11</f>
+        <f t="shared" si="6"/>
         <v>1.4638137895275392</v>
       </c>
       <c r="W11" s="25">
-        <f>$C11/K11</f>
+        <f t="shared" si="7"/>
         <v>1.9761620474366388</v>
       </c>
       <c r="X11" s="25">
-        <f>$C11/L11</f>
+        <f t="shared" si="8"/>
         <v>3.8030836105051073</v>
       </c>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" s="70"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="16">
         <v>15</v>
       </c>
@@ -29577,44 +29577,44 @@
         <v>1</v>
       </c>
       <c r="P12" s="25">
-        <f>$C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.99339336829568936</v>
       </c>
       <c r="Q12" s="25">
-        <f>$C12/E12</f>
+        <f t="shared" si="1"/>
         <v>0.75804868913749102</v>
       </c>
       <c r="R12" s="25">
-        <f>$C12/F12</f>
+        <f t="shared" si="2"/>
         <v>1.4349177640874922</v>
       </c>
       <c r="S12" s="25">
-        <f>$C12/G12</f>
+        <f t="shared" si="3"/>
         <v>1.8786686629442411</v>
       </c>
       <c r="T12" s="25">
-        <f>$C12/H12</f>
+        <f t="shared" si="4"/>
         <v>3.6492995760334712</v>
       </c>
       <c r="U12" s="25">
-        <f>$C12/I12</f>
+        <f t="shared" si="5"/>
         <v>0.77704773245584069</v>
       </c>
       <c r="V12" s="25">
-        <f>$C12/J12</f>
+        <f t="shared" si="6"/>
         <v>1.4997299875340038</v>
       </c>
       <c r="W12" s="25">
-        <f>$C12/K12</f>
+        <f t="shared" si="7"/>
         <v>2.0419305075020699</v>
       </c>
       <c r="X12" s="25">
-        <f>$C12/L12</f>
+        <f t="shared" si="8"/>
         <v>4.0392637286269411</v>
       </c>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" s="70"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="16">
         <v>17</v>
       </c>
@@ -29655,44 +29655,44 @@
         <v>1</v>
       </c>
       <c r="P13" s="25">
-        <f>$C13/D13</f>
+        <f t="shared" si="0"/>
         <v>1.0263530673718666</v>
       </c>
       <c r="Q13" s="25">
-        <f>$C13/E13</f>
+        <f t="shared" si="1"/>
         <v>0.78479073742688499</v>
       </c>
       <c r="R13" s="25">
-        <f>$C13/F13</f>
+        <f t="shared" si="2"/>
         <v>1.5022462802519296</v>
       </c>
       <c r="S13" s="25">
-        <f>$C13/G13</f>
+        <f t="shared" si="3"/>
         <v>1.9792559438880801</v>
       </c>
       <c r="T13" s="25">
-        <f>$C13/H13</f>
+        <f t="shared" si="4"/>
         <v>3.9036888661292934</v>
       </c>
       <c r="U13" s="25">
-        <f>$C13/I13</f>
+        <f t="shared" si="5"/>
         <v>0.80100225634438427</v>
       </c>
       <c r="V13" s="25">
-        <f>$C13/J13</f>
+        <f t="shared" si="6"/>
         <v>1.5572642759891184</v>
       </c>
       <c r="W13" s="25">
-        <f>$C13/K13</f>
+        <f t="shared" si="7"/>
         <v>2.1308402878699542</v>
       </c>
       <c r="X13" s="25">
-        <f>$C13/L13</f>
+        <f t="shared" si="8"/>
         <v>4.24484839904538</v>
       </c>
     </row>
     <row r="14" spans="1:42">
-      <c r="A14" s="70"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="16">
         <v>19</v>
       </c>
@@ -29733,44 +29733,44 @@
         <v>1</v>
       </c>
       <c r="P14" s="25">
-        <f>$C14/D14</f>
+        <f t="shared" si="0"/>
         <v>1.0029382098514616</v>
       </c>
       <c r="Q14" s="25">
-        <f>$C14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.76014550400418446</v>
       </c>
       <c r="R14" s="25">
-        <f>$C14/F14</f>
+        <f t="shared" si="2"/>
         <v>1.4496297285243274</v>
       </c>
       <c r="S14" s="25">
-        <f>$C14/G14</f>
+        <f t="shared" si="3"/>
         <v>1.9127599560335118</v>
       </c>
       <c r="T14" s="25">
-        <f>$C14/H14</f>
+        <f t="shared" si="4"/>
         <v>3.7086938330479202</v>
       </c>
       <c r="U14" s="25">
-        <f>$C14/I14</f>
+        <f t="shared" si="5"/>
         <v>0.78258414573696133</v>
       </c>
       <c r="V14" s="25">
-        <f>$C14/J14</f>
+        <f t="shared" si="6"/>
         <v>1.5276927945242358</v>
       </c>
       <c r="W14" s="25">
-        <f>$C14/K14</f>
+        <f t="shared" si="7"/>
         <v>2.0971344971191725</v>
       </c>
       <c r="X14" s="25">
-        <f>$C14/L14</f>
+        <f t="shared" si="8"/>
         <v>4.2114967344033172</v>
       </c>
     </row>
     <row r="15" spans="1:42">
-      <c r="A15" s="70"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="16">
         <v>21</v>
       </c>
@@ -29811,44 +29811,44 @@
         <v>1</v>
       </c>
       <c r="P15" s="25">
-        <f>$C15/D15</f>
+        <f t="shared" si="0"/>
         <v>1.0125625326484269</v>
       </c>
       <c r="Q15" s="25">
-        <f>$C15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.77338270269377085</v>
       </c>
       <c r="R15" s="25">
-        <f>$C15/F15</f>
+        <f t="shared" si="2"/>
         <v>1.4866867426522419</v>
       </c>
       <c r="S15" s="25">
-        <f>$C15/G15</f>
+        <f t="shared" si="3"/>
         <v>1.9739809812711653</v>
       </c>
       <c r="T15" s="25">
-        <f>$C15/H15</f>
+        <f t="shared" si="4"/>
         <v>3.9041736900867789</v>
       </c>
       <c r="U15" s="25">
-        <f>$C15/I15</f>
+        <f t="shared" si="5"/>
         <v>0.79206661514383603</v>
       </c>
       <c r="V15" s="25">
-        <f>$C15/J15</f>
+        <f t="shared" si="6"/>
         <v>1.5507818713031432</v>
       </c>
       <c r="W15" s="25">
-        <f>$C15/K15</f>
+        <f t="shared" si="7"/>
         <v>2.1347435473025813</v>
       </c>
       <c r="X15" s="25">
-        <f>$C15/L15</f>
+        <f t="shared" si="8"/>
         <v>4.2998541379443793</v>
       </c>
     </row>
     <row r="16" spans="1:42">
-      <c r="A16" s="70"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="16">
         <v>23</v>
       </c>
@@ -29889,44 +29889,44 @@
         <v>1</v>
       </c>
       <c r="P16" s="25">
-        <f>$C16/D16</f>
+        <f t="shared" si="0"/>
         <v>1.0114454524513192</v>
       </c>
       <c r="Q16" s="25">
-        <f>$C16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.77411612027828569</v>
       </c>
       <c r="R16" s="25">
-        <f>$C16/F16</f>
+        <f t="shared" si="2"/>
         <v>1.4948394314787647</v>
       </c>
       <c r="S16" s="25">
-        <f>$C16/G16</f>
+        <f t="shared" si="3"/>
         <v>1.9889582631503093</v>
       </c>
       <c r="T16" s="25">
-        <f>$C16/H16</f>
+        <f t="shared" si="4"/>
         <v>3.9662246706539723</v>
       </c>
       <c r="U16" s="25">
-        <f>$C16/I16</f>
+        <f t="shared" si="5"/>
         <v>0.79105210784189695</v>
       </c>
       <c r="V16" s="25">
-        <f>$C16/J16</f>
+        <f t="shared" si="6"/>
         <v>1.554463542390764</v>
       </c>
       <c r="W16" s="25">
-        <f>$C16/K16</f>
+        <f t="shared" si="7"/>
         <v>2.1461111869301766</v>
       </c>
       <c r="X16" s="25">
-        <f>$C16/L16</f>
+        <f t="shared" si="8"/>
         <v>4.2230649552703223</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="70"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="16">
         <v>25</v>
       </c>
@@ -29967,44 +29967,44 @@
         <v>1</v>
       </c>
       <c r="P17" s="25">
-        <f>$C17/D17</f>
+        <f t="shared" si="0"/>
         <v>1.0238485368424808</v>
       </c>
       <c r="Q17" s="25">
-        <f>$C17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.78846965939180136</v>
       </c>
       <c r="R17" s="25">
-        <f>$C17/F17</f>
+        <f t="shared" si="2"/>
         <v>1.5292103741880985</v>
       </c>
       <c r="S17" s="25">
-        <f>$C17/G17</f>
+        <f t="shared" si="3"/>
         <v>2.0400681640238441</v>
       </c>
       <c r="T17" s="25">
-        <f>$C17/H17</f>
+        <f t="shared" si="4"/>
         <v>4.1611076976145052</v>
       </c>
       <c r="U17" s="25">
-        <f>$C17/I17</f>
+        <f t="shared" si="5"/>
         <v>0.80373657268351939</v>
       </c>
       <c r="V17" s="25">
-        <f>$C17/J17</f>
+        <f t="shared" si="6"/>
         <v>1.5824237575129112</v>
       </c>
       <c r="W17" s="25">
-        <f>$C17/K17</f>
+        <f t="shared" si="7"/>
         <v>2.1837181664682195</v>
       </c>
       <c r="X17" s="25">
-        <f>$C17/L17</f>
+        <f t="shared" si="8"/>
         <v>4.485944447156001</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="70"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="16">
         <v>27</v>
       </c>
@@ -30045,44 +30045,44 @@
         <v>1</v>
       </c>
       <c r="P18" s="25">
-        <f>$C18/D18</f>
+        <f t="shared" si="0"/>
         <v>1.0138578302437076</v>
       </c>
       <c r="Q18" s="25">
-        <f>$C18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.77909449761953009</v>
       </c>
       <c r="R18" s="25">
-        <f>$C18/F18</f>
+        <f t="shared" si="2"/>
         <v>1.5151751797778403</v>
       </c>
       <c r="S18" s="25">
-        <f>$C18/G18</f>
+        <f t="shared" si="3"/>
         <v>2.0255602560765049</v>
       </c>
       <c r="T18" s="25">
-        <f>$C18/H18</f>
+        <f t="shared" si="4"/>
         <v>4.1412180765456492</v>
       </c>
       <c r="U18" s="25">
-        <f>$C18/I18</f>
+        <f t="shared" si="5"/>
         <v>0.79166446532154811</v>
       </c>
       <c r="V18" s="25">
-        <f>$C18/J18</f>
+        <f t="shared" si="6"/>
         <v>1.5567419997806762</v>
       </c>
       <c r="W18" s="25">
-        <f>$C18/K18</f>
+        <f t="shared" si="7"/>
         <v>2.1652580362957403</v>
       </c>
       <c r="X18" s="25">
-        <f>$C18/L18</f>
+        <f t="shared" si="8"/>
         <v>4.4488652295670317</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="70"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="16">
         <v>29</v>
       </c>
@@ -30123,44 +30123,44 @@
         <v>1</v>
       </c>
       <c r="P19" s="25">
-        <f>$C19/D19</f>
+        <f t="shared" si="0"/>
         <v>1.0119110170896031</v>
       </c>
       <c r="Q19" s="25">
-        <f>$C19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.78084714944754319</v>
       </c>
       <c r="R19" s="25">
-        <f>$C19/F19</f>
+        <f t="shared" si="2"/>
         <v>1.5243943729820897</v>
       </c>
       <c r="S19" s="25">
-        <f>$C19/G19</f>
+        <f t="shared" si="3"/>
         <v>2.0429570925690412</v>
       </c>
       <c r="T19" s="25">
-        <f>$C19/H19</f>
+        <f t="shared" si="4"/>
         <v>4.2263942253953539</v>
       </c>
       <c r="U19" s="26">
-        <f>$C19/I19</f>
+        <f t="shared" si="5"/>
         <v>0.79207729309271224</v>
       </c>
       <c r="V19" s="26">
-        <f>$C19/J19</f>
+        <f t="shared" si="6"/>
         <v>1.5619080714142635</v>
       </c>
       <c r="W19" s="26">
-        <f>$C19/K19</f>
+        <f t="shared" si="7"/>
         <v>2.1837580119828379</v>
       </c>
       <c r="X19" s="26">
-        <f>$C19/L19</f>
+        <f t="shared" si="8"/>
         <v>4.5004792458829588</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="70"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="16">
         <v>31</v>
       </c>
@@ -30193,23 +30193,23 @@
         <v>1</v>
       </c>
       <c r="P20" s="25">
-        <f>$C20/D20</f>
+        <f t="shared" ref="P20:P41" si="9">$C20/D20</f>
         <v>1.011395494457354</v>
       </c>
       <c r="Q20" s="25">
-        <f>$C20/E20</f>
+        <f t="shared" ref="Q20:Q41" si="10">$C20/E20</f>
         <v>0.75594859648435964</v>
       </c>
       <c r="R20" s="25">
-        <f>$C20/F20</f>
+        <f t="shared" ref="R20:R41" si="11">$C20/F20</f>
         <v>1.475606596787391</v>
       </c>
       <c r="S20" s="25">
-        <f>$C20/G20</f>
+        <f t="shared" ref="S20:S41" si="12">$C20/G20</f>
         <v>2.1923992899100577</v>
       </c>
       <c r="T20" s="25">
-        <f>$C20/H20</f>
+        <f t="shared" ref="T20:T41" si="13">$C20/H20</f>
         <v>4.4697210648148147</v>
       </c>
       <c r="U20" s="1"/>
@@ -30218,7 +30218,7 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="70"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="16">
         <v>33</v>
       </c>
@@ -30251,23 +30251,23 @@
         <v>1</v>
       </c>
       <c r="P21" s="25">
-        <f>$C21/D21</f>
+        <f t="shared" si="9"/>
         <v>1.0575107754782176</v>
       </c>
       <c r="Q21" s="25">
-        <f>$C21/E21</f>
+        <f t="shared" si="10"/>
         <v>0.80135379360657921</v>
       </c>
       <c r="R21" s="25">
-        <f>$C21/F21</f>
+        <f t="shared" si="11"/>
         <v>1.5694206315187882</v>
       </c>
       <c r="S21" s="25">
-        <f>$C21/G21</f>
+        <f t="shared" si="12"/>
         <v>2.3308177742129201</v>
       </c>
       <c r="T21" s="25">
-        <f>$C21/H21</f>
+        <f t="shared" si="13"/>
         <v>4.9020373508748634</v>
       </c>
       <c r="U21" s="1"/>
@@ -30276,7 +30276,7 @@
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="70"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="16">
         <v>35</v>
       </c>
@@ -30309,23 +30309,23 @@
         <v>1</v>
       </c>
       <c r="P22" s="25">
-        <f>$C22/D22</f>
+        <f t="shared" si="9"/>
         <v>1.0686803790667805</v>
       </c>
       <c r="Q22" s="25">
-        <f>$C22/E22</f>
+        <f t="shared" si="10"/>
         <v>0.80556558192702488</v>
       </c>
       <c r="R22" s="25">
-        <f>$C22/F22</f>
+        <f t="shared" si="11"/>
         <v>1.5718014840254837</v>
       </c>
       <c r="S22" s="25">
-        <f>$C22/G22</f>
+        <f t="shared" si="12"/>
         <v>2.1305996729720422</v>
       </c>
       <c r="T22" s="25">
-        <f>$C22/H22</f>
+        <f t="shared" si="13"/>
         <v>4.4120289453405972</v>
       </c>
       <c r="U22" s="1"/>
@@ -30334,7 +30334,7 @@
       <c r="X22" s="1"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="70"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="16">
         <v>37</v>
       </c>
@@ -30367,23 +30367,23 @@
         <v>1</v>
       </c>
       <c r="P23" s="25">
-        <f>$C23/D23</f>
+        <f t="shared" si="9"/>
         <v>1.077665701625687</v>
       </c>
       <c r="Q23" s="25">
-        <f>$C23/E23</f>
+        <f t="shared" si="10"/>
         <v>0.81260478983949969</v>
       </c>
       <c r="R23" s="25">
-        <f>$C23/F23</f>
+        <f t="shared" si="11"/>
         <v>1.5883660164447655</v>
       </c>
       <c r="S23" s="25">
-        <f>$C23/G23</f>
+        <f t="shared" si="12"/>
         <v>2.1599349217701374</v>
       </c>
       <c r="T23" s="25">
-        <f>$C23/H23</f>
+        <f t="shared" si="13"/>
         <v>4.5044723213074001</v>
       </c>
       <c r="U23" s="1"/>
@@ -30392,7 +30392,7 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="70"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="16">
         <v>39</v>
       </c>
@@ -30425,23 +30425,23 @@
         <v>1</v>
       </c>
       <c r="P24" s="25">
-        <f>$C24/D24</f>
+        <f t="shared" si="9"/>
         <v>1.0612641781245111</v>
       </c>
       <c r="Q24" s="25">
-        <f>$C24/E24</f>
+        <f t="shared" si="10"/>
         <v>0.70590532404466677</v>
       </c>
       <c r="R24" s="25">
-        <f>$C24/F24</f>
+        <f t="shared" si="11"/>
         <v>1.3638402462670633</v>
       </c>
       <c r="S24" s="25">
-        <f>$C24/G24</f>
+        <f t="shared" si="12"/>
         <v>1.9451305485053971</v>
       </c>
       <c r="T24" s="25">
-        <f>$C24/H24</f>
+        <f t="shared" si="13"/>
         <v>3.6177082204027635</v>
       </c>
       <c r="U24" s="1"/>
@@ -30450,7 +30450,7 @@
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="70"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="16">
         <v>41</v>
       </c>
@@ -30483,23 +30483,23 @@
         <v>1</v>
       </c>
       <c r="P25" s="25">
-        <f>$C25/D25</f>
+        <f t="shared" si="9"/>
         <v>1.0731309937433948</v>
       </c>
       <c r="Q25" s="25">
-        <f>$C25/E25</f>
+        <f t="shared" si="10"/>
         <v>0.70981096920810383</v>
       </c>
       <c r="R25" s="25">
-        <f>$C25/F25</f>
+        <f t="shared" si="11"/>
         <v>1.3790515240372381</v>
       </c>
       <c r="S25" s="25">
-        <f>$C25/G25</f>
+        <f t="shared" si="12"/>
         <v>1.9916716845329561</v>
       </c>
       <c r="T25" s="25">
-        <f>$C25/H25</f>
+        <f t="shared" si="13"/>
         <v>3.7305120427331948</v>
       </c>
       <c r="U25" s="1"/>
@@ -30508,7 +30508,7 @@
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="70"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="16">
         <v>43</v>
       </c>
@@ -30541,23 +30541,23 @@
         <v>1</v>
       </c>
       <c r="P26" s="25">
-        <f>$C26/D26</f>
+        <f t="shared" si="9"/>
         <v>1.0772682559809148</v>
       </c>
       <c r="Q26" s="25">
-        <f>$C26/E26</f>
+        <f t="shared" si="10"/>
         <v>0.71384756706570296</v>
       </c>
       <c r="R26" s="25">
-        <f>$C26/F26</f>
+        <f t="shared" si="11"/>
         <v>1.3882836911434446</v>
       </c>
       <c r="S26" s="25">
-        <f>$C26/G26</f>
+        <f t="shared" si="12"/>
         <v>1.9953526767808167</v>
       </c>
       <c r="T26" s="25">
-        <f>$C26/H26</f>
+        <f t="shared" si="13"/>
         <v>3.7434982392747358</v>
       </c>
       <c r="U26" s="1"/>
@@ -30566,7 +30566,7 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="70"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="16">
         <v>45</v>
       </c>
@@ -30599,23 +30599,23 @@
         <v>1</v>
       </c>
       <c r="P27" s="25">
-        <f>$C27/D27</f>
+        <f t="shared" si="9"/>
         <v>1.0849241976547368</v>
       </c>
       <c r="Q27" s="25">
-        <f>$C27/E27</f>
+        <f t="shared" si="10"/>
         <v>0.71948609583466083</v>
       </c>
       <c r="R27" s="25">
-        <f>$C27/F27</f>
+        <f t="shared" si="11"/>
         <v>1.4010666978757949</v>
       </c>
       <c r="S27" s="25">
-        <f>$C27/G27</f>
+        <f t="shared" si="12"/>
         <v>2.0347756318806671</v>
       </c>
       <c r="T27" s="25">
-        <f>$C27/H27</f>
+        <f t="shared" si="13"/>
         <v>3.8300035081524202</v>
       </c>
       <c r="U27" s="1"/>
@@ -30624,7 +30624,7 @@
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="70"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="16">
         <v>47</v>
       </c>
@@ -30657,23 +30657,23 @@
         <v>1</v>
       </c>
       <c r="P28" s="25">
-        <f>$C28/D28</f>
+        <f t="shared" si="9"/>
         <v>1.0834800102688844</v>
       </c>
       <c r="Q28" s="25">
-        <f>$C28/E28</f>
+        <f t="shared" si="10"/>
         <v>0.72020466783321846</v>
       </c>
       <c r="R28" s="25">
-        <f>$C28/F28</f>
+        <f t="shared" si="11"/>
         <v>1.4014236054380371</v>
       </c>
       <c r="S28" s="25">
-        <f>$C28/G28</f>
+        <f t="shared" si="12"/>
         <v>2.0260037992733295</v>
       </c>
       <c r="T28" s="25">
-        <f>$C28/H28</f>
+        <f t="shared" si="13"/>
         <v>3.8759501717719256</v>
       </c>
       <c r="U28" s="1"/>
@@ -30682,7 +30682,7 @@
       <c r="X28" s="1"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="70"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="16">
         <v>49</v>
       </c>
@@ -30715,23 +30715,23 @@
         <v>1</v>
       </c>
       <c r="P29" s="25">
-        <f>$C29/D29</f>
+        <f t="shared" si="9"/>
         <v>1.1407103122039579</v>
       </c>
       <c r="Q29" s="25">
-        <f>$C29/E29</f>
+        <f t="shared" si="10"/>
         <v>0.59435525703836534</v>
       </c>
       <c r="R29" s="25">
-        <f>$C29/F29</f>
+        <f t="shared" si="11"/>
         <v>1.48433115553538</v>
       </c>
       <c r="S29" s="25">
-        <f>$C29/G29</f>
+        <f t="shared" si="12"/>
         <v>2.1525849461351791</v>
       </c>
       <c r="T29" s="25">
-        <f>$C29/H29</f>
+        <f t="shared" si="13"/>
         <v>0.27558249190303186</v>
       </c>
       <c r="U29" s="1"/>
@@ -30740,7 +30740,7 @@
       <c r="X29" s="1"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="70"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="16">
         <v>51</v>
       </c>
@@ -30773,23 +30773,23 @@
         <v>1</v>
       </c>
       <c r="P30" s="25">
-        <f>$C30/D30</f>
+        <f t="shared" si="9"/>
         <v>1.1352103535004376</v>
       </c>
       <c r="Q30" s="25">
-        <f>$C30/E30</f>
+        <f t="shared" si="10"/>
         <v>0.47245363111609867</v>
       </c>
       <c r="R30" s="25">
-        <f>$C30/F30</f>
+        <f t="shared" si="11"/>
         <v>0.91286664226752323</v>
       </c>
       <c r="S30" s="25">
-        <f>$C30/G30</f>
+        <f t="shared" si="12"/>
         <v>1.3840967921729719</v>
       </c>
       <c r="T30" s="25">
-        <f>$C30/H30</f>
+        <f t="shared" si="13"/>
         <v>3.8341297692418874</v>
       </c>
       <c r="U30" s="1"/>
@@ -30798,7 +30798,7 @@
       <c r="X30" s="1"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="70"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="16">
         <v>53</v>
       </c>
@@ -30831,23 +30831,23 @@
         <v>1</v>
       </c>
       <c r="P31" s="25">
-        <f>$C31/D31</f>
+        <f t="shared" si="9"/>
         <v>1.1392025577491462</v>
       </c>
       <c r="Q31" s="25">
-        <f>$C31/E31</f>
+        <f t="shared" si="10"/>
         <v>0.47268618210026064</v>
       </c>
       <c r="R31" s="25">
-        <f>$C31/F31</f>
+        <f t="shared" si="11"/>
         <v>0.91503360253007293</v>
       </c>
       <c r="S31" s="25">
-        <f>$C31/G31</f>
+        <f t="shared" si="12"/>
         <v>1.3939528209343022</v>
       </c>
       <c r="T31" s="25">
-        <f>$C31/H31</f>
+        <f t="shared" si="13"/>
         <v>0.31531067475957208</v>
       </c>
       <c r="U31" s="1"/>
@@ -30856,7 +30856,7 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="70"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="16">
         <v>55</v>
       </c>
@@ -30889,23 +30889,23 @@
         <v>1</v>
       </c>
       <c r="P32" s="25">
-        <f>$C32/D32</f>
+        <f t="shared" si="9"/>
         <v>1.1393586835358729</v>
       </c>
       <c r="Q32" s="25">
-        <f>$C32/E32</f>
+        <f t="shared" si="10"/>
         <v>0.47313632441287906</v>
       </c>
       <c r="R32" s="25">
-        <f>$C32/F32</f>
+        <f t="shared" si="11"/>
         <v>0.91685703724769796</v>
       </c>
       <c r="S32" s="25">
-        <f>$C32/G32</f>
+        <f t="shared" si="12"/>
         <v>1.3984560417596414</v>
       </c>
       <c r="T32" s="25">
-        <f>$C32/H32</f>
+        <f t="shared" si="13"/>
         <v>3.2086712038942151</v>
       </c>
       <c r="U32" s="1"/>
@@ -30914,7 +30914,7 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="70"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="16">
         <v>57</v>
       </c>
@@ -30947,23 +30947,23 @@
         <v>1</v>
       </c>
       <c r="P33" s="25">
-        <f>$C33/D33</f>
+        <f t="shared" si="9"/>
         <v>1.146355084295513</v>
       </c>
       <c r="Q33" s="25">
-        <f>$C33/E33</f>
+        <f t="shared" si="10"/>
         <v>0.47433268457203059</v>
       </c>
       <c r="R33" s="25">
-        <f>$C33/F33</f>
+        <f t="shared" si="11"/>
         <v>0.92051003333646253</v>
       </c>
       <c r="S33" s="25">
-        <f>$C33/G33</f>
+        <f t="shared" si="12"/>
         <v>1.4062966767262921</v>
       </c>
       <c r="T33" s="25">
-        <f>$C33/H33</f>
+        <f t="shared" si="13"/>
         <v>0.36832485719282249</v>
       </c>
       <c r="U33" s="1"/>
@@ -30972,7 +30972,7 @@
       <c r="X33" s="1"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="70"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="16">
         <v>59</v>
       </c>
@@ -31005,23 +31005,23 @@
         <v>1</v>
       </c>
       <c r="P34" s="25">
-        <f>$C34/D34</f>
+        <f t="shared" si="9"/>
         <v>1.1530520509337778</v>
       </c>
       <c r="Q34" s="25">
-        <f>$C34/E34</f>
+        <f t="shared" si="10"/>
         <v>0.47738811859997482</v>
       </c>
       <c r="R34" s="25">
-        <f>$C34/F34</f>
+        <f t="shared" si="11"/>
         <v>0.92725382517579091</v>
       </c>
       <c r="S34" s="25">
-        <f>$C34/G34</f>
+        <f t="shared" si="12"/>
         <v>1.4183257484670093</v>
       </c>
       <c r="T34" s="25">
-        <f>$C34/H34</f>
+        <f t="shared" si="13"/>
         <v>0.3889182308666313</v>
       </c>
       <c r="U34" s="1"/>
@@ -31030,7 +31030,7 @@
       <c r="X34" s="1"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="70"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="16">
         <v>61</v>
       </c>
@@ -31063,23 +31063,23 @@
         <v>1</v>
       </c>
       <c r="P35" s="25">
-        <f>$C35/D35</f>
+        <f t="shared" si="9"/>
         <v>1.1513924189004463</v>
       </c>
       <c r="Q35" s="25">
-        <f>$C35/E35</f>
+        <f t="shared" si="10"/>
         <v>0.4759117732917113</v>
       </c>
       <c r="R35" s="25">
-        <f>$C35/F35</f>
+        <f t="shared" si="11"/>
         <v>0.92541538314590077</v>
       </c>
       <c r="S35" s="25">
-        <f>$C35/G35</f>
+        <f t="shared" si="12"/>
         <v>1.4168232575583517</v>
       </c>
       <c r="T35" s="25">
-        <f>$C35/H35</f>
+        <f t="shared" si="13"/>
         <v>0.41782354090659529</v>
       </c>
       <c r="U35" s="1"/>
@@ -31088,7 +31088,7 @@
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="70"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="16">
         <v>63</v>
       </c>
@@ -31121,23 +31121,23 @@
         <v>1</v>
       </c>
       <c r="P36" s="25">
-        <f>$C36/D36</f>
+        <f t="shared" si="9"/>
         <v>1.1568642676665695</v>
       </c>
       <c r="Q36" s="25">
-        <f>$C36/E36</f>
+        <f t="shared" si="10"/>
         <v>0.47828186417825491</v>
       </c>
       <c r="R36" s="25">
-        <f>$C36/F36</f>
+        <f t="shared" si="11"/>
         <v>0.93092211747213049</v>
       </c>
       <c r="S36" s="25">
-        <f>$C36/G36</f>
+        <f t="shared" si="12"/>
         <v>1.5091631433071853</v>
       </c>
       <c r="T36" s="25">
-        <f>$C36/H36</f>
+        <f t="shared" si="13"/>
         <v>4.2115325871205602</v>
       </c>
       <c r="U36" s="1"/>
@@ -31179,23 +31179,23 @@
         <v>1</v>
       </c>
       <c r="P37" s="25">
-        <f>$C37/D37</f>
+        <f t="shared" si="9"/>
         <v>1.2243557574635922</v>
       </c>
       <c r="Q37" s="25">
-        <f>$C37/E37</f>
+        <f t="shared" si="10"/>
         <v>0.51092790980182101</v>
       </c>
       <c r="R37" s="25">
-        <f>$C37/F37</f>
+        <f t="shared" si="11"/>
         <v>0.99505518640486412</v>
       </c>
       <c r="S37" s="25">
-        <f>$C37/G37</f>
+        <f t="shared" si="12"/>
         <v>1.6118410186375496</v>
       </c>
       <c r="T37" s="25">
-        <f>$C37/H37</f>
+        <f t="shared" si="13"/>
         <v>0.4997856145209234</v>
       </c>
       <c r="U37" s="1"/>
@@ -31237,23 +31237,23 @@
         <v>1</v>
       </c>
       <c r="P38" s="25">
-        <f>$C38/D38</f>
+        <f t="shared" si="9"/>
         <v>1.2381838819009452</v>
       </c>
       <c r="Q38" s="25">
-        <f>$C38/E38</f>
+        <f t="shared" si="10"/>
         <v>0.51402605584578887</v>
       </c>
       <c r="R38" s="25">
-        <f>$C38/F38</f>
+        <f t="shared" si="11"/>
         <v>0.99759184411508584</v>
       </c>
       <c r="S38" s="25">
-        <f>$C38/G38</f>
+        <f t="shared" si="12"/>
         <v>1.5199106001637515</v>
       </c>
       <c r="T38" s="25">
-        <f>$C38/H38</f>
+        <f t="shared" si="13"/>
         <v>4.3085929277296389</v>
       </c>
       <c r="U38" s="1"/>
@@ -31295,23 +31295,23 @@
         <v>1</v>
       </c>
       <c r="P39" s="25">
-        <f>$C39/D39</f>
+        <f t="shared" si="9"/>
         <v>1.2522990069447932</v>
       </c>
       <c r="Q39" s="25">
-        <f>$C39/E39</f>
+        <f t="shared" si="10"/>
         <v>0.51806253374975875</v>
       </c>
       <c r="R39" s="25">
-        <f>$C39/F39</f>
+        <f t="shared" si="11"/>
         <v>1.0064094787291678</v>
       </c>
       <c r="S39" s="25">
-        <f>$C39/G39</f>
+        <f t="shared" si="12"/>
         <v>1.5396940850006904</v>
       </c>
       <c r="T39" s="25">
-        <f>$C39/H39</f>
+        <f t="shared" si="13"/>
         <v>0.5363753122164624</v>
       </c>
       <c r="U39" s="1"/>
@@ -31353,23 +31353,23 @@
         <v>1</v>
       </c>
       <c r="P40" s="25">
-        <f>$C40/D40</f>
+        <f t="shared" si="9"/>
         <v>1.2462101195633417</v>
       </c>
       <c r="Q40" s="25">
-        <f>$C40/E40</f>
+        <f t="shared" si="10"/>
         <v>0.51609387934346673</v>
       </c>
       <c r="R40" s="25">
-        <f>$C40/F40</f>
+        <f t="shared" si="11"/>
         <v>1.0033041257923758</v>
       </c>
       <c r="S40" s="25">
-        <f>$C40/G40</f>
+        <f t="shared" si="12"/>
         <v>1.5362320843253228</v>
       </c>
       <c r="T40" s="25">
-        <f>$C40/H40</f>
+        <f t="shared" si="13"/>
         <v>4.3816576976129893</v>
       </c>
       <c r="U40" s="1"/>
@@ -31408,23 +31408,23 @@
         <v>1</v>
       </c>
       <c r="P41" s="19">
-        <f>$C41/D41</f>
+        <f t="shared" si="9"/>
         <v>1.254847033545754</v>
       </c>
       <c r="Q41" s="26">
-        <f>$C41/E41</f>
+        <f t="shared" si="10"/>
         <v>0.51785616524998768</v>
       </c>
       <c r="R41" s="26">
-        <f>$C41/F41</f>
+        <f t="shared" si="11"/>
         <v>1.0077418801470599</v>
       </c>
       <c r="S41" s="26">
-        <f>$C41/G41</f>
+        <f t="shared" si="12"/>
         <v>1.5439451111872962</v>
       </c>
       <c r="T41" s="26">
-        <f>$C41/H41</f>
+        <f t="shared" si="13"/>
         <v>0.60230136037847748</v>
       </c>
       <c r="U41" s="1"/>
@@ -31450,7 +31450,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="25">
-        <f>$C42/D42</f>
+        <f t="shared" ref="P42:P49" si="14">$C42/D42</f>
         <v>1.2663006254044487</v>
       </c>
       <c r="U42" s="1"/>
@@ -31476,7 +31476,7 @@
         <v>1</v>
       </c>
       <c r="P43" s="25">
-        <f>$C43/D43</f>
+        <f t="shared" si="14"/>
         <v>1.2793673482681598</v>
       </c>
       <c r="U43" s="1"/>
@@ -31502,7 +31502,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="25">
-        <f>$C44/D44</f>
+        <f t="shared" si="14"/>
         <v>1.2982419560988732</v>
       </c>
       <c r="Q44" s="1"/>
@@ -31532,7 +31532,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="25">
-        <f>$C45/D45</f>
+        <f t="shared" si="14"/>
         <v>1.3777411600124312</v>
       </c>
       <c r="Q45" s="1"/>
@@ -31562,7 +31562,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="25">
-        <f>$C46/D46</f>
+        <f t="shared" si="14"/>
         <v>1.3689554934832024</v>
       </c>
       <c r="Q46" s="1"/>
@@ -31592,7 +31592,7 @@
         <v>1</v>
       </c>
       <c r="P47" s="25">
-        <f>$C47/D47</f>
+        <f t="shared" si="14"/>
         <v>1.3880204528075972</v>
       </c>
       <c r="Q47" s="1"/>
@@ -31622,7 +31622,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="25">
-        <f>$C48/D48</f>
+        <f t="shared" si="14"/>
         <v>1.3863162716008803</v>
       </c>
       <c r="Q48" s="1"/>
@@ -31652,7 +31652,7 @@
         <v>1</v>
       </c>
       <c r="P49" s="26">
-        <f>$C49/D49</f>
+        <f t="shared" si="14"/>
         <v>1.3972523846846565</v>
       </c>
       <c r="Q49" s="1"/>
@@ -31780,19 +31780,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="59"/>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="75"/>
+      <c r="G8" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="61"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="38" t="s">
         <v>76</v>
       </c>
@@ -32440,18 +32440,18 @@
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" s="21" t="s">
@@ -32764,39 +32764,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="61"/>
-      <c r="N2" s="60" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="61"/>
-      <c r="Y2" s="60" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="75"/>
+      <c r="Y2" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="61"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="75"/>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" s="13" t="s">
@@ -36780,11 +36780,11 @@
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="38"/>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
@@ -37096,11 +37096,11 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="38"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="61"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
